--- a/cbrunner/Parameters/Parameters_FelledFate.xlsx
+++ b/cbrunner/Parameters/Parameters_FelledFate.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\rhember\Documents\Code_Python\fcgadgets\cbrunner\Parameters\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{63F9E462-A18D-41F8-8158-EC8A874A386C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7A492FC8-1686-4692-AAB5-E11E4298F63B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="840" yWindow="-108" windowWidth="22308" windowHeight="13176" xr2:uid="{7F20A1ED-3E22-4A0C-9D63-AB819F918BF5}"/>
+    <workbookView xWindow="825" yWindow="-120" windowWidth="28095" windowHeight="16440" xr2:uid="{7F20A1ED-3E22-4A0C-9D63-AB819F918BF5}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="24">
   <si>
     <t>Name</t>
   </si>
@@ -97,6 +97,15 @@
   </si>
   <si>
     <t>GFS22 Source</t>
+  </si>
+  <si>
+    <t>Waste Analysis 2022</t>
+  </si>
+  <si>
+    <t>Set equal to Waste Analysis 2022</t>
+  </si>
+  <si>
+    <t>Assumed to be zero</t>
   </si>
 </sst>
 </file>
@@ -500,18 +509,21 @@
   <dimension ref="A1:G15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D23" sqref="D23"/>
+      <selection activeCell="F11" sqref="F11:F15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="42.21875" customWidth="1"/>
-    <col min="3" max="3" width="12.33203125" customWidth="1"/>
-    <col min="5" max="5" width="14.44140625" customWidth="1"/>
-    <col min="7" max="7" width="13.88671875" customWidth="1"/>
+    <col min="1" max="1" width="42.28515625" customWidth="1"/>
+    <col min="2" max="2" width="7.140625" customWidth="1"/>
+    <col min="3" max="3" width="18.7109375" customWidth="1"/>
+    <col min="4" max="4" width="7.85546875" customWidth="1"/>
+    <col min="5" max="5" width="18.42578125" customWidth="1"/>
+    <col min="6" max="6" width="7.7109375" customWidth="1"/>
+    <col min="7" max="7" width="13.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -534,160 +546,193 @@
         <v>20</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" s="7" t="s">
         <v>2</v>
       </c>
       <c r="B2" s="8">
-        <v>0.85</v>
-      </c>
-      <c r="C2" s="9"/>
+        <v>0.83</v>
+      </c>
+      <c r="C2" s="9" t="s">
+        <v>21</v>
+      </c>
       <c r="D2" s="8">
-        <v>0.9</v>
-      </c>
-      <c r="E2" s="9"/>
+        <v>0.94</v>
+      </c>
+      <c r="E2" s="9" t="s">
+        <v>21</v>
+      </c>
       <c r="F2" s="8">
         <v>0.9</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" s="7" t="s">
         <v>3</v>
       </c>
       <c r="B3" s="8">
-        <v>0.6</v>
-      </c>
-      <c r="C3" s="9"/>
+        <v>0.3</v>
+      </c>
+      <c r="C3" s="9" t="s">
+        <v>21</v>
+      </c>
       <c r="D3" s="8">
-        <v>0.6</v>
-      </c>
-      <c r="E3" s="9"/>
+        <v>0.65</v>
+      </c>
+      <c r="E3" s="9" t="s">
+        <v>21</v>
+      </c>
       <c r="F3" s="8">
         <v>0.6</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4" s="7" t="s">
         <v>4</v>
       </c>
       <c r="B4" s="8">
-        <f>1-B3</f>
-        <v>0.4</v>
-      </c>
-      <c r="C4" s="9"/>
+        <v>0.7</v>
+      </c>
+      <c r="C4" s="9" t="s">
+        <v>21</v>
+      </c>
       <c r="D4" s="8">
         <f>1-D3</f>
-        <v>0.4</v>
-      </c>
-      <c r="E4" s="9"/>
+        <v>0.35</v>
+      </c>
+      <c r="E4" s="9" t="s">
+        <v>21</v>
+      </c>
       <c r="F4" s="8">
         <f>1-F3</f>
         <v>0.4</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
         <v>5</v>
       </c>
       <c r="B5" s="8">
         <v>0</v>
       </c>
-      <c r="C5" s="9"/>
+      <c r="C5" s="9" t="s">
+        <v>23</v>
+      </c>
       <c r="D5" s="8">
         <v>0</v>
       </c>
-      <c r="E5" s="9"/>
+      <c r="E5" s="9" t="s">
+        <v>23</v>
+      </c>
       <c r="F5" s="8">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
         <v>6</v>
       </c>
       <c r="B6" s="8">
-        <v>0.6</v>
-      </c>
-      <c r="C6" s="9"/>
+        <v>0.3</v>
+      </c>
+      <c r="C6" s="9" t="s">
+        <v>22</v>
+      </c>
       <c r="D6" s="8">
-        <v>0.9</v>
-      </c>
-      <c r="E6" s="9"/>
+        <v>0.65</v>
+      </c>
+      <c r="E6" s="9" t="s">
+        <v>22</v>
+      </c>
       <c r="F6" s="8">
         <v>0.9</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
         <v>7</v>
       </c>
       <c r="B7" s="8">
-        <f>1-B6</f>
-        <v>0.4</v>
-      </c>
-      <c r="C7" s="9"/>
+        <v>0.7</v>
+      </c>
+      <c r="C7" s="9" t="s">
+        <v>22</v>
+      </c>
       <c r="D7" s="8">
         <f>1-D6</f>
-        <v>9.9999999999999978E-2</v>
-      </c>
-      <c r="E7" s="9"/>
+        <v>0.35</v>
+      </c>
+      <c r="E7" s="9" t="s">
+        <v>22</v>
+      </c>
       <c r="F7" s="8">
         <f>1-F6</f>
         <v>9.9999999999999978E-2</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A8" s="7" t="s">
         <v>8</v>
       </c>
       <c r="B8" s="8">
-        <v>0.85</v>
-      </c>
-      <c r="C8" s="9"/>
+        <v>0.83</v>
+      </c>
+      <c r="C8" s="9" t="s">
+        <v>21</v>
+      </c>
       <c r="D8" s="8">
-        <v>0.9</v>
-      </c>
-      <c r="E8" s="9"/>
+        <v>0.94</v>
+      </c>
+      <c r="E8" s="9" t="s">
+        <v>21</v>
+      </c>
       <c r="F8" s="8">
         <v>0.9</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A9" s="7" t="s">
         <v>9</v>
       </c>
       <c r="B9" s="8">
-        <v>0.6</v>
-      </c>
-      <c r="C9" s="9"/>
+        <v>0.3</v>
+      </c>
+      <c r="C9" s="9" t="s">
+        <v>21</v>
+      </c>
       <c r="D9" s="8">
-        <v>0.9</v>
-      </c>
-      <c r="E9" s="9"/>
+        <v>0.65</v>
+      </c>
+      <c r="E9" s="9" t="s">
+        <v>21</v>
+      </c>
       <c r="F9" s="8">
         <v>0.9</v>
       </c>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A10" s="7" t="s">
         <v>10</v>
       </c>
       <c r="B10" s="8">
-        <f>1-B9</f>
-        <v>0.4</v>
-      </c>
-      <c r="C10" s="9"/>
+        <v>0.7</v>
+      </c>
+      <c r="C10" s="9" t="s">
+        <v>21</v>
+      </c>
       <c r="D10" s="8">
         <f>1-D9</f>
-        <v>9.9999999999999978E-2</v>
-      </c>
-      <c r="E10" s="9"/>
+        <v>0.35</v>
+      </c>
+      <c r="E10" s="9" t="s">
+        <v>21</v>
+      </c>
       <c r="F10" s="8">
         <f>1-F9</f>
         <v>9.9999999999999978E-2</v>
       </c>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A11" s="3" t="s">
         <v>11</v>
       </c>
@@ -703,68 +748,68 @@
         <v>2021</v>
       </c>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A12" s="3" t="s">
         <v>12</v>
       </c>
       <c r="B12" s="10">
-        <v>2050</v>
+        <v>2030</v>
       </c>
       <c r="C12" s="11"/>
       <c r="D12" s="10">
-        <v>2050</v>
+        <v>2030</v>
       </c>
       <c r="E12" s="11"/>
       <c r="F12" s="10">
-        <v>2050</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
+        <v>2030</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A13" s="3" t="s">
         <v>13</v>
       </c>
       <c r="B13" s="8">
-        <v>0.95</v>
+        <v>0.98</v>
       </c>
       <c r="C13" s="9"/>
       <c r="D13" s="8">
-        <v>0.95</v>
+        <v>0.98</v>
       </c>
       <c r="E13" s="9"/>
       <c r="F13" s="8">
-        <v>0.95</v>
-      </c>
-    </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
+        <v>0.98</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A14" s="3" t="s">
         <v>14</v>
       </c>
       <c r="B14" s="8">
-        <v>0.75</v>
+        <v>0.5</v>
       </c>
       <c r="C14" s="9"/>
       <c r="D14" s="8">
-        <v>0.75</v>
+        <v>0.5</v>
       </c>
       <c r="E14" s="9"/>
       <c r="F14" s="8">
-        <v>0.75</v>
-      </c>
-    </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A15" s="3" t="s">
         <v>15</v>
       </c>
       <c r="B15" s="8">
-        <v>0.78</v>
+        <v>0.98</v>
       </c>
       <c r="C15" s="9"/>
       <c r="D15" s="8">
-        <v>0.95</v>
+        <v>0.98</v>
       </c>
       <c r="E15" s="9"/>
       <c r="F15" s="8">
-        <v>0.95</v>
+        <v>0.98</v>
       </c>
     </row>
   </sheetData>

--- a/cbrunner/Parameters/Parameters_FelledFate.xlsx
+++ b/cbrunner/Parameters/Parameters_FelledFate.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\rhember\Documents\Code_Python\fcgadgets\cbrunner\Parameters\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7A492FC8-1686-4692-AAB5-E11E4298F63B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0B8C8EDE-63B7-417F-A5AD-2D7F050A673A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="825" yWindow="-120" windowWidth="28095" windowHeight="16440" xr2:uid="{7F20A1ED-3E22-4A0C-9D63-AB819F918BF5}"/>
+    <workbookView xWindow="828" yWindow="-108" windowWidth="22320" windowHeight="13176" xr2:uid="{7F20A1ED-3E22-4A0C-9D63-AB819F918BF5}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="26">
   <si>
     <t>Name</t>
   </si>
@@ -106,6 +106,12 @@
   </si>
   <si>
     <t>Assumed to be zero</t>
+  </si>
+  <si>
+    <t>Energy Production</t>
+  </si>
+  <si>
+    <t>Energy Production Source</t>
   </si>
 </sst>
 </file>
@@ -506,31 +512,33 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7E249324-B6FF-4D34-AC5E-99692FB5281D}">
-  <dimension ref="A1:G15"/>
+  <dimension ref="A1:I15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F11" sqref="F11:F15"/>
+      <selection activeCell="H12" sqref="H12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="42.28515625" customWidth="1"/>
-    <col min="2" max="2" width="7.140625" customWidth="1"/>
-    <col min="3" max="3" width="18.7109375" customWidth="1"/>
-    <col min="4" max="4" width="7.85546875" customWidth="1"/>
-    <col min="5" max="5" width="18.42578125" customWidth="1"/>
-    <col min="6" max="6" width="7.7109375" customWidth="1"/>
-    <col min="7" max="7" width="13.85546875" customWidth="1"/>
+    <col min="1" max="1" width="42.33203125" customWidth="1"/>
+    <col min="2" max="2" width="7.109375" customWidth="1"/>
+    <col min="3" max="3" width="18.6640625" customWidth="1"/>
+    <col min="4" max="4" width="7.88671875" customWidth="1"/>
+    <col min="5" max="5" width="18.44140625" customWidth="1"/>
+    <col min="6" max="6" width="7.6640625" customWidth="1"/>
+    <col min="7" max="7" width="13.88671875" customWidth="1"/>
+    <col min="8" max="8" width="17" customWidth="1"/>
+    <col min="9" max="9" width="16.21875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="6" t="s">
+      <c r="B1" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="6" t="s">
+      <c r="C1" s="4" t="s">
         <v>18</v>
       </c>
       <c r="D1" s="5" t="s">
@@ -539,14 +547,20 @@
       <c r="E1" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="F1" s="4" t="s">
+      <c r="F1" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="G1" s="4" t="s">
+      <c r="G1" s="6" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H1" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="I1" s="4" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A2" s="7" t="s">
         <v>2</v>
       </c>
@@ -565,8 +579,12 @@
       <c r="F2" s="8">
         <v>0.9</v>
       </c>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H2" s="8">
+        <v>1</v>
+      </c>
+      <c r="I2" s="9"/>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A3" s="7" t="s">
         <v>3</v>
       </c>
@@ -585,8 +603,12 @@
       <c r="F3" s="8">
         <v>0.6</v>
       </c>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H3" s="8">
+        <v>0</v>
+      </c>
+      <c r="I3" s="9"/>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A4" s="7" t="s">
         <v>4</v>
       </c>
@@ -607,8 +629,12 @@
         <f>1-F3</f>
         <v>0.4</v>
       </c>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H4" s="8">
+        <v>0</v>
+      </c>
+      <c r="I4" s="9"/>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A5" s="2" t="s">
         <v>5</v>
       </c>
@@ -627,8 +653,12 @@
       <c r="F5" s="8">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H5" s="8">
+        <v>1</v>
+      </c>
+      <c r="I5" s="9"/>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A6" s="2" t="s">
         <v>6</v>
       </c>
@@ -647,8 +677,12 @@
       <c r="F6" s="8">
         <v>0.9</v>
       </c>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H6" s="8">
+        <v>0</v>
+      </c>
+      <c r="I6" s="9"/>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A7" s="2" t="s">
         <v>7</v>
       </c>
@@ -669,8 +703,12 @@
         <f>1-F6</f>
         <v>9.9999999999999978E-2</v>
       </c>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H7" s="8">
+        <v>0</v>
+      </c>
+      <c r="I7" s="9"/>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A8" s="7" t="s">
         <v>8</v>
       </c>
@@ -689,8 +727,12 @@
       <c r="F8" s="8">
         <v>0.9</v>
       </c>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H8" s="8">
+        <v>1</v>
+      </c>
+      <c r="I8" s="9"/>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A9" s="7" t="s">
         <v>9</v>
       </c>
@@ -709,8 +751,12 @@
       <c r="F9" s="8">
         <v>0.9</v>
       </c>
-    </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H9" s="8">
+        <v>0</v>
+      </c>
+      <c r="I9" s="9"/>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A10" s="7" t="s">
         <v>10</v>
       </c>
@@ -731,8 +777,12 @@
         <f>1-F9</f>
         <v>9.9999999999999978E-2</v>
       </c>
-    </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H10" s="8">
+        <v>0</v>
+      </c>
+      <c r="I10" s="9"/>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A11" s="3" t="s">
         <v>11</v>
       </c>
@@ -747,8 +797,12 @@
       <c r="F11" s="10">
         <v>2021</v>
       </c>
-    </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H11" s="10">
+        <v>2021</v>
+      </c>
+      <c r="I11" s="11"/>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A12" s="3" t="s">
         <v>12</v>
       </c>
@@ -763,8 +817,12 @@
       <c r="F12" s="10">
         <v>2030</v>
       </c>
-    </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H12" s="10">
+        <v>2030</v>
+      </c>
+      <c r="I12" s="11"/>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A13" s="3" t="s">
         <v>13</v>
       </c>
@@ -779,8 +837,12 @@
       <c r="F13" s="8">
         <v>0.98</v>
       </c>
-    </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H13" s="8">
+        <v>1</v>
+      </c>
+      <c r="I13" s="9"/>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A14" s="3" t="s">
         <v>14</v>
       </c>
@@ -795,8 +857,12 @@
       <c r="F14" s="8">
         <v>0.5</v>
       </c>
-    </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H14" s="8">
+        <v>1</v>
+      </c>
+      <c r="I14" s="9"/>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A15" s="3" t="s">
         <v>15</v>
       </c>
@@ -811,6 +877,10 @@
       <c r="F15" s="8">
         <v>0.98</v>
       </c>
+      <c r="H15" s="8">
+        <v>1</v>
+      </c>
+      <c r="I15" s="9"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/cbrunner/Parameters/Parameters_FelledFate.xlsx
+++ b/cbrunner/Parameters/Parameters_FelledFate.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24326"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25629"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\rhember\Documents\Code_Python\fcgadgets\cbrunner\Parameters\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0B8C8EDE-63B7-417F-A5AD-2D7F050A673A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D82CABF2-34E6-4871-B3F0-0EB7F3699AAA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="828" yWindow="-108" windowWidth="22320" windowHeight="13176" xr2:uid="{7F20A1ED-3E22-4A0C-9D63-AB819F918BF5}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="29">
   <si>
     <t>Name</t>
   </si>
@@ -111,7 +111,16 @@
     <t>Energy Production</t>
   </si>
   <si>
-    <t>Energy Production Source</t>
+    <t>BurnUneconomic</t>
+  </si>
+  <si>
+    <t>LeaveUneconomicStanding</t>
+  </si>
+  <si>
+    <t>UseUnecomicForPellets</t>
+  </si>
+  <si>
+    <t>Energy Production Pellets</t>
   </si>
 </sst>
 </file>
@@ -135,7 +144,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="5">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -160,6 +169,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="1">
     <border>
@@ -173,7 +188,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -198,6 +213,9 @@
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -512,26 +530,27 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7E249324-B6FF-4D34-AC5E-99692FB5281D}">
-  <dimension ref="A1:I15"/>
+  <dimension ref="A1:L15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H12" sqref="H12"/>
+      <selection activeCell="L2" sqref="L1:L15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="42.33203125" customWidth="1"/>
+    <col min="1" max="1" width="31.6640625" customWidth="1"/>
     <col min="2" max="2" width="7.109375" customWidth="1"/>
     <col min="3" max="3" width="18.6640625" customWidth="1"/>
     <col min="4" max="4" width="7.88671875" customWidth="1"/>
     <col min="5" max="5" width="18.44140625" customWidth="1"/>
     <col min="6" max="6" width="7.6640625" customWidth="1"/>
     <col min="7" max="7" width="13.88671875" customWidth="1"/>
-    <col min="8" max="8" width="17" customWidth="1"/>
-    <col min="9" max="9" width="16.21875" customWidth="1"/>
+    <col min="8" max="9" width="17" customWidth="1"/>
+    <col min="10" max="10" width="24.88671875" customWidth="1"/>
+    <col min="11" max="11" width="22.21875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -556,11 +575,20 @@
       <c r="H1" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="I1" s="4" t="s">
+      <c r="I1" s="12" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J1" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="K1" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="L1" s="4" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A2" s="7" t="s">
         <v>2</v>
       </c>
@@ -582,9 +610,20 @@
       <c r="H2" s="8">
         <v>1</v>
       </c>
-      <c r="I2" s="9"/>
-    </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="I2" s="8">
+        <v>0.7</v>
+      </c>
+      <c r="J2" s="8">
+        <v>1</v>
+      </c>
+      <c r="K2" s="8">
+        <v>1</v>
+      </c>
+      <c r="L2" s="8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A3" s="7" t="s">
         <v>3</v>
       </c>
@@ -606,9 +645,20 @@
       <c r="H3" s="8">
         <v>0</v>
       </c>
-      <c r="I3" s="9"/>
-    </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="I3" s="8">
+        <v>1</v>
+      </c>
+      <c r="J3" s="8">
+        <v>0</v>
+      </c>
+      <c r="K3" s="8">
+        <v>0</v>
+      </c>
+      <c r="L3" s="8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A4" s="7" t="s">
         <v>4</v>
       </c>
@@ -632,9 +682,20 @@
       <c r="H4" s="8">
         <v>0</v>
       </c>
-      <c r="I4" s="9"/>
-    </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="I4" s="8">
+        <v>0</v>
+      </c>
+      <c r="J4" s="8">
+        <v>0</v>
+      </c>
+      <c r="K4" s="8">
+        <v>0</v>
+      </c>
+      <c r="L4" s="8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A5" s="2" t="s">
         <v>5</v>
       </c>
@@ -656,9 +717,20 @@
       <c r="H5" s="8">
         <v>1</v>
       </c>
-      <c r="I5" s="9"/>
-    </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="I5" s="8">
+        <v>0</v>
+      </c>
+      <c r="J5" s="8">
+        <v>0</v>
+      </c>
+      <c r="K5" s="8">
+        <v>1</v>
+      </c>
+      <c r="L5" s="8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A6" s="2" t="s">
         <v>6</v>
       </c>
@@ -680,9 +752,20 @@
       <c r="H6" s="8">
         <v>0</v>
       </c>
-      <c r="I6" s="9"/>
-    </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="I6" s="8">
+        <v>1</v>
+      </c>
+      <c r="J6" s="8">
+        <v>0.9</v>
+      </c>
+      <c r="K6" s="8">
+        <v>0</v>
+      </c>
+      <c r="L6" s="8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A7" s="2" t="s">
         <v>7</v>
       </c>
@@ -706,9 +789,20 @@
       <c r="H7" s="8">
         <v>0</v>
       </c>
-      <c r="I7" s="9"/>
-    </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="I7" s="8">
+        <v>0</v>
+      </c>
+      <c r="J7" s="8">
+        <v>0.1</v>
+      </c>
+      <c r="K7" s="8">
+        <v>0</v>
+      </c>
+      <c r="L7" s="8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A8" s="7" t="s">
         <v>8</v>
       </c>
@@ -730,9 +824,20 @@
       <c r="H8" s="8">
         <v>1</v>
       </c>
-      <c r="I8" s="9"/>
-    </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="I8" s="8">
+        <v>0.7</v>
+      </c>
+      <c r="J8" s="8">
+        <v>1</v>
+      </c>
+      <c r="K8" s="8">
+        <v>1</v>
+      </c>
+      <c r="L8" s="8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A9" s="7" t="s">
         <v>9</v>
       </c>
@@ -754,9 +859,20 @@
       <c r="H9" s="8">
         <v>0</v>
       </c>
-      <c r="I9" s="9"/>
-    </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="I9" s="8">
+        <v>1</v>
+      </c>
+      <c r="J9" s="8">
+        <v>0</v>
+      </c>
+      <c r="K9" s="8">
+        <v>0</v>
+      </c>
+      <c r="L9" s="8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A10" s="7" t="s">
         <v>10</v>
       </c>
@@ -780,9 +896,20 @@
       <c r="H10" s="8">
         <v>0</v>
       </c>
-      <c r="I10" s="9"/>
-    </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="I10" s="8">
+        <v>0</v>
+      </c>
+      <c r="J10" s="8">
+        <v>0</v>
+      </c>
+      <c r="K10" s="8">
+        <v>0</v>
+      </c>
+      <c r="L10" s="8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A11" s="3" t="s">
         <v>11</v>
       </c>
@@ -800,9 +927,20 @@
       <c r="H11" s="10">
         <v>2021</v>
       </c>
-      <c r="I11" s="11"/>
-    </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="I11" s="10">
+        <v>2021</v>
+      </c>
+      <c r="J11" s="10">
+        <v>2021</v>
+      </c>
+      <c r="K11" s="10">
+        <v>2021</v>
+      </c>
+      <c r="L11" s="10">
+        <v>2021</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A12" s="3" t="s">
         <v>12</v>
       </c>
@@ -820,9 +958,20 @@
       <c r="H12" s="10">
         <v>2030</v>
       </c>
-      <c r="I12" s="11"/>
-    </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="I12" s="10">
+        <v>2030</v>
+      </c>
+      <c r="J12" s="10">
+        <v>2030</v>
+      </c>
+      <c r="K12" s="10">
+        <v>2030</v>
+      </c>
+      <c r="L12" s="10">
+        <v>2030</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A13" s="3" t="s">
         <v>13</v>
       </c>
@@ -840,9 +989,20 @@
       <c r="H13" s="8">
         <v>1</v>
       </c>
-      <c r="I13" s="9"/>
-    </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="I13" s="8">
+        <v>1</v>
+      </c>
+      <c r="J13" s="8">
+        <v>1</v>
+      </c>
+      <c r="K13" s="8">
+        <v>1</v>
+      </c>
+      <c r="L13" s="8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A14" s="3" t="s">
         <v>14</v>
       </c>
@@ -860,9 +1020,20 @@
       <c r="H14" s="8">
         <v>1</v>
       </c>
-      <c r="I14" s="9"/>
-    </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="I14" s="8">
+        <v>1</v>
+      </c>
+      <c r="J14" s="8">
+        <v>1</v>
+      </c>
+      <c r="K14" s="8">
+        <v>1</v>
+      </c>
+      <c r="L14" s="8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A15" s="3" t="s">
         <v>15</v>
       </c>
@@ -880,7 +1051,18 @@
       <c r="H15" s="8">
         <v>1</v>
       </c>
-      <c r="I15" s="9"/>
+      <c r="I15" s="8">
+        <v>1</v>
+      </c>
+      <c r="J15" s="8">
+        <v>1</v>
+      </c>
+      <c r="K15" s="8">
+        <v>1</v>
+      </c>
+      <c r="L15" s="8">
+        <v>1</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/cbrunner/Parameters/Parameters_FelledFate.xlsx
+++ b/cbrunner/Parameters/Parameters_FelledFate.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25629"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25726"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\rhember\Documents\Code_Python\fcgadgets\cbrunner\Parameters\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D82CABF2-34E6-4871-B3F0-0EB7F3699AAA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CCDF9F1E-7EBB-4287-8CCB-83DCFD59FEAE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="828" yWindow="-108" windowWidth="22320" windowHeight="13176" xr2:uid="{7F20A1ED-3E22-4A0C-9D63-AB819F918BF5}"/>
   </bookViews>
@@ -188,22 +188,10 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -213,8 +201,23 @@
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left"/>
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -533,7 +536,7 @@
   <dimension ref="A1:L15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L2" sqref="L1:L15"/>
+      <selection activeCell="H10" sqref="H10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -545,522 +548,523 @@
     <col min="5" max="5" width="18.44140625" customWidth="1"/>
     <col min="6" max="6" width="7.6640625" customWidth="1"/>
     <col min="7" max="7" width="13.88671875" customWidth="1"/>
-    <col min="8" max="9" width="17" customWidth="1"/>
-    <col min="10" max="10" width="24.88671875" customWidth="1"/>
-    <col min="11" max="11" width="22.21875" customWidth="1"/>
+    <col min="8" max="8" width="10.6640625" customWidth="1"/>
+    <col min="9" max="9" width="10.77734375" customWidth="1"/>
+    <col min="10" max="10" width="12" customWidth="1"/>
+    <col min="11" max="11" width="11.44140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="4" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="4" t="s">
+    <row r="1" spans="1:12" s="13" customFormat="1" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="A1" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="9" t="s">
         <v>18</v>
       </c>
-      <c r="D1" s="5" t="s">
+      <c r="D1" s="10" t="s">
         <v>16</v>
       </c>
-      <c r="E1" s="5" t="s">
+      <c r="E1" s="10" t="s">
         <v>19</v>
       </c>
-      <c r="F1" s="6" t="s">
+      <c r="F1" s="11" t="s">
         <v>17</v>
       </c>
-      <c r="G1" s="6" t="s">
+      <c r="G1" s="11" t="s">
         <v>20</v>
       </c>
-      <c r="H1" s="4" t="s">
+      <c r="H1" s="9" t="s">
         <v>24</v>
       </c>
       <c r="I1" s="12" t="s">
         <v>25</v>
       </c>
-      <c r="J1" s="4" t="s">
+      <c r="J1" s="9" t="s">
         <v>26</v>
       </c>
-      <c r="K1" s="5" t="s">
+      <c r="K1" s="10" t="s">
         <v>27</v>
       </c>
-      <c r="L1" s="4" t="s">
+      <c r="L1" s="9" t="s">
         <v>28</v>
       </c>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A2" s="7" t="s">
+      <c r="A2" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="8">
+      <c r="B2" s="4">
         <v>0.83</v>
       </c>
-      <c r="C2" s="9" t="s">
-        <v>21</v>
-      </c>
-      <c r="D2" s="8">
+      <c r="C2" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="D2" s="4">
         <v>0.94</v>
       </c>
-      <c r="E2" s="9" t="s">
-        <v>21</v>
-      </c>
-      <c r="F2" s="8">
+      <c r="E2" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="F2" s="4">
         <v>0.9</v>
       </c>
-      <c r="H2" s="8">
-        <v>1</v>
-      </c>
-      <c r="I2" s="8">
+      <c r="H2" s="4">
+        <v>1</v>
+      </c>
+      <c r="I2" s="4">
         <v>0.7</v>
       </c>
-      <c r="J2" s="8">
-        <v>1</v>
-      </c>
-      <c r="K2" s="8">
-        <v>1</v>
-      </c>
-      <c r="L2" s="8">
+      <c r="J2" s="4">
+        <v>1</v>
+      </c>
+      <c r="K2" s="4">
+        <v>1</v>
+      </c>
+      <c r="L2" s="4">
         <v>1</v>
       </c>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A3" s="7" t="s">
+      <c r="A3" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="B3" s="8">
+      <c r="B3" s="4">
         <v>0.3</v>
       </c>
-      <c r="C3" s="9" t="s">
-        <v>21</v>
-      </c>
-      <c r="D3" s="8">
+      <c r="C3" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="D3" s="4">
         <v>0.65</v>
       </c>
-      <c r="E3" s="9" t="s">
-        <v>21</v>
-      </c>
-      <c r="F3" s="8">
+      <c r="E3" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="F3" s="4">
         <v>0.6</v>
       </c>
-      <c r="H3" s="8">
-        <v>0</v>
-      </c>
-      <c r="I3" s="8">
-        <v>1</v>
-      </c>
-      <c r="J3" s="8">
-        <v>0</v>
-      </c>
-      <c r="K3" s="8">
-        <v>0</v>
-      </c>
-      <c r="L3" s="8">
+      <c r="H3" s="4">
+        <v>0</v>
+      </c>
+      <c r="I3" s="4">
+        <v>1</v>
+      </c>
+      <c r="J3" s="4">
+        <v>0</v>
+      </c>
+      <c r="K3" s="4">
+        <v>0</v>
+      </c>
+      <c r="L3" s="4">
         <v>0</v>
       </c>
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A4" s="7" t="s">
+      <c r="A4" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="B4" s="8">
+      <c r="B4" s="4">
         <v>0.7</v>
       </c>
-      <c r="C4" s="9" t="s">
-        <v>21</v>
-      </c>
-      <c r="D4" s="8">
+      <c r="C4" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="D4" s="4">
         <f>1-D3</f>
         <v>0.35</v>
       </c>
-      <c r="E4" s="9" t="s">
-        <v>21</v>
-      </c>
-      <c r="F4" s="8">
+      <c r="E4" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="F4" s="4">
         <f>1-F3</f>
         <v>0.4</v>
       </c>
-      <c r="H4" s="8">
-        <v>0</v>
-      </c>
-      <c r="I4" s="8">
-        <v>0</v>
-      </c>
-      <c r="J4" s="8">
-        <v>0</v>
-      </c>
-      <c r="K4" s="8">
-        <v>0</v>
-      </c>
-      <c r="L4" s="8">
+      <c r="H4" s="4">
+        <v>0</v>
+      </c>
+      <c r="I4" s="4">
+        <v>0</v>
+      </c>
+      <c r="J4" s="4">
+        <v>0</v>
+      </c>
+      <c r="K4" s="4">
+        <v>0</v>
+      </c>
+      <c r="L4" s="4">
         <v>0</v>
       </c>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A5" s="2" t="s">
+      <c r="A5" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="B5" s="8">
-        <v>0</v>
-      </c>
-      <c r="C5" s="9" t="s">
+      <c r="B5" s="4">
+        <v>0</v>
+      </c>
+      <c r="C5" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="D5" s="8">
-        <v>0</v>
-      </c>
-      <c r="E5" s="9" t="s">
+      <c r="D5" s="4">
+        <v>0</v>
+      </c>
+      <c r="E5" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="F5" s="8">
-        <v>0</v>
-      </c>
-      <c r="H5" s="8">
-        <v>1</v>
-      </c>
-      <c r="I5" s="8">
-        <v>0</v>
-      </c>
-      <c r="J5" s="8">
-        <v>0</v>
-      </c>
-      <c r="K5" s="8">
-        <v>1</v>
-      </c>
-      <c r="L5" s="8">
+      <c r="F5" s="4">
+        <v>0</v>
+      </c>
+      <c r="H5" s="4">
+        <v>1</v>
+      </c>
+      <c r="I5" s="4">
+        <v>0</v>
+      </c>
+      <c r="J5" s="4">
+        <v>0</v>
+      </c>
+      <c r="K5" s="4">
+        <v>1</v>
+      </c>
+      <c r="L5" s="4">
         <v>1</v>
       </c>
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A6" s="2" t="s">
+      <c r="A6" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="B6" s="8">
+      <c r="B6" s="4">
         <v>0.3</v>
       </c>
-      <c r="C6" s="9" t="s">
+      <c r="C6" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="D6" s="8">
+      <c r="D6" s="4">
         <v>0.65</v>
       </c>
-      <c r="E6" s="9" t="s">
+      <c r="E6" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="F6" s="8">
+      <c r="F6" s="4">
         <v>0.9</v>
       </c>
-      <c r="H6" s="8">
-        <v>0</v>
-      </c>
-      <c r="I6" s="8">
-        <v>1</v>
-      </c>
-      <c r="J6" s="8">
+      <c r="H6" s="4">
+        <v>0</v>
+      </c>
+      <c r="I6" s="4">
+        <v>1</v>
+      </c>
+      <c r="J6" s="4">
         <v>0.9</v>
       </c>
-      <c r="K6" s="8">
-        <v>0</v>
-      </c>
-      <c r="L6" s="8">
+      <c r="K6" s="4">
+        <v>0</v>
+      </c>
+      <c r="L6" s="4">
         <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A7" s="2" t="s">
+      <c r="A7" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="B7" s="8">
+      <c r="B7" s="4">
         <v>0.7</v>
       </c>
-      <c r="C7" s="9" t="s">
+      <c r="C7" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="D7" s="8">
+      <c r="D7" s="4">
         <f>1-D6</f>
         <v>0.35</v>
       </c>
-      <c r="E7" s="9" t="s">
+      <c r="E7" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="F7" s="8">
+      <c r="F7" s="4">
         <f>1-F6</f>
         <v>9.9999999999999978E-2</v>
       </c>
-      <c r="H7" s="8">
-        <v>0</v>
-      </c>
-      <c r="I7" s="8">
-        <v>0</v>
-      </c>
-      <c r="J7" s="8">
+      <c r="H7" s="4">
+        <v>0</v>
+      </c>
+      <c r="I7" s="4">
+        <v>0</v>
+      </c>
+      <c r="J7" s="4">
         <v>0.1</v>
       </c>
-      <c r="K7" s="8">
-        <v>0</v>
-      </c>
-      <c r="L7" s="8">
+      <c r="K7" s="4">
+        <v>0</v>
+      </c>
+      <c r="L7" s="4">
         <v>0</v>
       </c>
     </row>
     <row r="8" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A8" s="7" t="s">
+      <c r="A8" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="B8" s="8">
+      <c r="B8" s="4">
         <v>0.83</v>
       </c>
-      <c r="C8" s="9" t="s">
-        <v>21</v>
-      </c>
-      <c r="D8" s="8">
+      <c r="C8" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="D8" s="4">
         <v>0.94</v>
       </c>
-      <c r="E8" s="9" t="s">
-        <v>21</v>
-      </c>
-      <c r="F8" s="8">
+      <c r="E8" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="F8" s="4">
         <v>0.9</v>
       </c>
-      <c r="H8" s="8">
-        <v>1</v>
-      </c>
-      <c r="I8" s="8">
+      <c r="H8" s="4">
+        <v>1</v>
+      </c>
+      <c r="I8" s="4">
         <v>0.7</v>
       </c>
-      <c r="J8" s="8">
-        <v>1</v>
-      </c>
-      <c r="K8" s="8">
-        <v>1</v>
-      </c>
-      <c r="L8" s="8">
+      <c r="J8" s="4">
+        <v>1</v>
+      </c>
+      <c r="K8" s="4">
+        <v>1</v>
+      </c>
+      <c r="L8" s="4">
         <v>1</v>
       </c>
     </row>
     <row r="9" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A9" s="7" t="s">
+      <c r="A9" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="B9" s="8">
+      <c r="B9" s="4">
         <v>0.3</v>
       </c>
-      <c r="C9" s="9" t="s">
-        <v>21</v>
-      </c>
-      <c r="D9" s="8">
+      <c r="C9" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="D9" s="4">
         <v>0.65</v>
       </c>
-      <c r="E9" s="9" t="s">
-        <v>21</v>
-      </c>
-      <c r="F9" s="8">
+      <c r="E9" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="F9" s="4">
         <v>0.9</v>
       </c>
-      <c r="H9" s="8">
-        <v>0</v>
-      </c>
-      <c r="I9" s="8">
-        <v>1</v>
-      </c>
-      <c r="J9" s="8">
-        <v>0</v>
-      </c>
-      <c r="K9" s="8">
-        <v>0</v>
-      </c>
-      <c r="L9" s="8">
+      <c r="H9" s="4">
+        <v>0</v>
+      </c>
+      <c r="I9" s="4">
+        <v>1</v>
+      </c>
+      <c r="J9" s="4">
+        <v>0</v>
+      </c>
+      <c r="K9" s="4">
+        <v>0</v>
+      </c>
+      <c r="L9" s="4">
         <v>0</v>
       </c>
     </row>
     <row r="10" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A10" s="7" t="s">
+      <c r="A10" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="B10" s="8">
+      <c r="B10" s="4">
         <v>0.7</v>
       </c>
-      <c r="C10" s="9" t="s">
-        <v>21</v>
-      </c>
-      <c r="D10" s="8">
+      <c r="C10" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="D10" s="4">
         <f>1-D9</f>
         <v>0.35</v>
       </c>
-      <c r="E10" s="9" t="s">
-        <v>21</v>
-      </c>
-      <c r="F10" s="8">
+      <c r="E10" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="F10" s="4">
         <f>1-F9</f>
         <v>9.9999999999999978E-2</v>
       </c>
-      <c r="H10" s="8">
-        <v>0</v>
-      </c>
-      <c r="I10" s="8">
-        <v>0</v>
-      </c>
-      <c r="J10" s="8">
-        <v>0</v>
-      </c>
-      <c r="K10" s="8">
-        <v>0</v>
-      </c>
-      <c r="L10" s="8">
+      <c r="H10" s="4">
+        <v>0</v>
+      </c>
+      <c r="I10" s="4">
+        <v>0</v>
+      </c>
+      <c r="J10" s="4">
+        <v>0</v>
+      </c>
+      <c r="K10" s="4">
+        <v>0</v>
+      </c>
+      <c r="L10" s="4">
         <v>0</v>
       </c>
     </row>
     <row r="11" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A11" s="3" t="s">
+      <c r="A11" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="B11" s="10">
+      <c r="B11" s="6">
         <v>2021</v>
       </c>
-      <c r="C11" s="11"/>
-      <c r="D11" s="10">
+      <c r="C11" s="7"/>
+      <c r="D11" s="6">
         <v>2021</v>
       </c>
-      <c r="E11" s="11"/>
-      <c r="F11" s="10">
+      <c r="E11" s="7"/>
+      <c r="F11" s="6">
         <v>2021</v>
       </c>
-      <c r="H11" s="10">
+      <c r="H11" s="6">
         <v>2021</v>
       </c>
-      <c r="I11" s="10">
+      <c r="I11" s="6">
         <v>2021</v>
       </c>
-      <c r="J11" s="10">
+      <c r="J11" s="6">
         <v>2021</v>
       </c>
-      <c r="K11" s="10">
+      <c r="K11" s="6">
         <v>2021</v>
       </c>
-      <c r="L11" s="10">
+      <c r="L11" s="6">
         <v>2021</v>
       </c>
     </row>
     <row r="12" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A12" s="3" t="s">
+      <c r="A12" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="B12" s="10">
+      <c r="B12" s="6">
         <v>2030</v>
       </c>
-      <c r="C12" s="11"/>
-      <c r="D12" s="10">
+      <c r="C12" s="7"/>
+      <c r="D12" s="6">
         <v>2030</v>
       </c>
-      <c r="E12" s="11"/>
-      <c r="F12" s="10">
+      <c r="E12" s="7"/>
+      <c r="F12" s="6">
         <v>2030</v>
       </c>
-      <c r="H12" s="10">
+      <c r="H12" s="6">
         <v>2030</v>
       </c>
-      <c r="I12" s="10">
+      <c r="I12" s="6">
         <v>2030</v>
       </c>
-      <c r="J12" s="10">
+      <c r="J12" s="6">
         <v>2030</v>
       </c>
-      <c r="K12" s="10">
+      <c r="K12" s="6">
         <v>2030</v>
       </c>
-      <c r="L12" s="10">
+      <c r="L12" s="6">
         <v>2030</v>
       </c>
     </row>
     <row r="13" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A13" s="3" t="s">
+      <c r="A13" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="B13" s="8">
+      <c r="B13" s="4">
         <v>0.98</v>
       </c>
-      <c r="C13" s="9"/>
-      <c r="D13" s="8">
+      <c r="C13" s="5"/>
+      <c r="D13" s="4">
         <v>0.98</v>
       </c>
-      <c r="E13" s="9"/>
-      <c r="F13" s="8">
+      <c r="E13" s="5"/>
+      <c r="F13" s="4">
         <v>0.98</v>
       </c>
-      <c r="H13" s="8">
-        <v>1</v>
-      </c>
-      <c r="I13" s="8">
-        <v>1</v>
-      </c>
-      <c r="J13" s="8">
-        <v>1</v>
-      </c>
-      <c r="K13" s="8">
-        <v>1</v>
-      </c>
-      <c r="L13" s="8">
+      <c r="H13" s="4">
+        <v>1</v>
+      </c>
+      <c r="I13" s="4">
+        <v>1</v>
+      </c>
+      <c r="J13" s="4">
+        <v>1</v>
+      </c>
+      <c r="K13" s="4">
+        <v>1</v>
+      </c>
+      <c r="L13" s="4">
         <v>1</v>
       </c>
     </row>
     <row r="14" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A14" s="3" t="s">
+      <c r="A14" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="B14" s="8">
+      <c r="B14" s="4">
         <v>0.5</v>
       </c>
-      <c r="C14" s="9"/>
-      <c r="D14" s="8">
+      <c r="C14" s="5"/>
+      <c r="D14" s="4">
         <v>0.5</v>
       </c>
-      <c r="E14" s="9"/>
-      <c r="F14" s="8">
+      <c r="E14" s="5"/>
+      <c r="F14" s="4">
         <v>0.5</v>
       </c>
-      <c r="H14" s="8">
-        <v>1</v>
-      </c>
-      <c r="I14" s="8">
-        <v>1</v>
-      </c>
-      <c r="J14" s="8">
-        <v>1</v>
-      </c>
-      <c r="K14" s="8">
-        <v>1</v>
-      </c>
-      <c r="L14" s="8">
+      <c r="H14" s="4">
+        <v>1</v>
+      </c>
+      <c r="I14" s="4">
+        <v>1</v>
+      </c>
+      <c r="J14" s="4">
+        <v>1</v>
+      </c>
+      <c r="K14" s="4">
+        <v>1</v>
+      </c>
+      <c r="L14" s="4">
         <v>1</v>
       </c>
     </row>
     <row r="15" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A15" s="3" t="s">
+      <c r="A15" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="B15" s="8">
+      <c r="B15" s="4">
         <v>0.98</v>
       </c>
-      <c r="C15" s="9"/>
-      <c r="D15" s="8">
+      <c r="C15" s="5"/>
+      <c r="D15" s="4">
         <v>0.98</v>
       </c>
-      <c r="E15" s="9"/>
-      <c r="F15" s="8">
+      <c r="E15" s="5"/>
+      <c r="F15" s="4">
         <v>0.98</v>
       </c>
-      <c r="H15" s="8">
-        <v>1</v>
-      </c>
-      <c r="I15" s="8">
-        <v>1</v>
-      </c>
-      <c r="J15" s="8">
-        <v>1</v>
-      </c>
-      <c r="K15" s="8">
-        <v>1</v>
-      </c>
-      <c r="L15" s="8">
+      <c r="H15" s="4">
+        <v>1</v>
+      </c>
+      <c r="I15" s="4">
+        <v>1</v>
+      </c>
+      <c r="J15" s="4">
+        <v>1</v>
+      </c>
+      <c r="K15" s="4">
+        <v>1</v>
+      </c>
+      <c r="L15" s="4">
         <v>1</v>
       </c>
     </row>

--- a/cbrunner/Parameters/Parameters_FelledFate.xlsx
+++ b/cbrunner/Parameters/Parameters_FelledFate.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\rhember\Documents\Code_Python\fcgadgets\cbrunner\Parameters\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CCDF9F1E-7EBB-4287-8CCB-83DCFD59FEAE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B16A0DA2-D65E-4C71-B4D5-B906C19E64F6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="828" yWindow="-108" windowWidth="22320" windowHeight="13176" xr2:uid="{7F20A1ED-3E22-4A0C-9D63-AB819F918BF5}"/>
   </bookViews>
@@ -111,16 +111,16 @@
     <t>Energy Production</t>
   </si>
   <si>
-    <t>BurnUneconomic</t>
-  </si>
-  <si>
-    <t>LeaveUneconomicStanding</t>
-  </si>
-  <si>
-    <t>UseUnecomicForPellets</t>
-  </si>
-  <si>
     <t>Energy Production Pellets</t>
+  </si>
+  <si>
+    <t>Burn Uneconomic</t>
+  </si>
+  <si>
+    <t>Leave Uneconomic Standing</t>
+  </si>
+  <si>
+    <t>Sawlogs and Pellets</t>
   </si>
 </sst>
 </file>
@@ -536,7 +536,7 @@
   <dimension ref="A1:L15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H10" sqref="H10"/>
+      <selection activeCell="L1" sqref="L1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -580,16 +580,16 @@
         <v>24</v>
       </c>
       <c r="I1" s="12" t="s">
+        <v>26</v>
+      </c>
+      <c r="J1" s="9" t="s">
+        <v>27</v>
+      </c>
+      <c r="K1" s="10" t="s">
+        <v>28</v>
+      </c>
+      <c r="L1" s="9" t="s">
         <v>25</v>
-      </c>
-      <c r="J1" s="9" t="s">
-        <v>26</v>
-      </c>
-      <c r="K1" s="10" t="s">
-        <v>27</v>
-      </c>
-      <c r="L1" s="9" t="s">
-        <v>28</v>
       </c>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.3">

--- a/cbrunner/Parameters/Parameters_FelledFate.xlsx
+++ b/cbrunner/Parameters/Parameters_FelledFate.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\rhember\Documents\Code_Python\fcgadgets\cbrunner\Parameters\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B16A0DA2-D65E-4C71-B4D5-B906C19E64F6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DEE79623-5B44-4501-BBBE-D24F593E8258}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="828" yWindow="-108" windowWidth="22320" windowHeight="13176" xr2:uid="{7F20A1ED-3E22-4A0C-9D63-AB819F918BF5}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="28">
   <si>
     <t>Name</t>
   </si>
@@ -94,9 +94,6 @@
   </si>
   <si>
     <t>Interior Source</t>
-  </si>
-  <si>
-    <t>GFS22 Source</t>
   </si>
   <si>
     <t>Waste Analysis 2022</t>
@@ -533,28 +530,19 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7E249324-B6FF-4D34-AC5E-99692FB5281D}">
-  <dimension ref="A1:L15"/>
+  <dimension ref="A1:K15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L1" sqref="L1"/>
+      <selection activeCell="J2" sqref="J2:J15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="31.6640625" customWidth="1"/>
-    <col min="2" max="2" width="7.109375" customWidth="1"/>
-    <col min="3" max="3" width="18.6640625" customWidth="1"/>
-    <col min="4" max="4" width="7.88671875" customWidth="1"/>
-    <col min="5" max="5" width="18.44140625" customWidth="1"/>
-    <col min="6" max="6" width="7.6640625" customWidth="1"/>
-    <col min="7" max="7" width="13.88671875" customWidth="1"/>
-    <col min="8" max="8" width="10.6640625" customWidth="1"/>
-    <col min="9" max="9" width="10.77734375" customWidth="1"/>
-    <col min="10" max="10" width="12" customWidth="1"/>
-    <col min="11" max="11" width="11.44140625" customWidth="1"/>
+    <col min="2" max="11" width="13.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" s="13" customFormat="1" ht="57.6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:11" s="13" customFormat="1" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A1" s="8" t="s">
         <v>0</v>
       </c>
@@ -573,26 +561,23 @@
       <c r="F1" s="11" t="s">
         <v>17</v>
       </c>
-      <c r="G1" s="11" t="s">
-        <v>20</v>
-      </c>
-      <c r="H1" s="9" t="s">
+      <c r="G1" s="9" t="s">
+        <v>23</v>
+      </c>
+      <c r="H1" s="12" t="s">
+        <v>25</v>
+      </c>
+      <c r="I1" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="J1" s="10" t="s">
+        <v>27</v>
+      </c>
+      <c r="K1" s="9" t="s">
         <v>24</v>
       </c>
-      <c r="I1" s="12" t="s">
-        <v>26</v>
-      </c>
-      <c r="J1" s="9" t="s">
-        <v>27</v>
-      </c>
-      <c r="K1" s="10" t="s">
-        <v>28</v>
-      </c>
-      <c r="L1" s="9" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.3">
+    </row>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A2" s="3" t="s">
         <v>2</v>
       </c>
@@ -600,34 +585,34 @@
         <v>0.83</v>
       </c>
       <c r="C2" s="5" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D2" s="4">
         <v>0.94</v>
       </c>
       <c r="E2" s="5" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="F2" s="4">
         <v>0.9</v>
       </c>
+      <c r="G2" s="4">
+        <v>1</v>
+      </c>
       <c r="H2" s="4">
-        <v>1</v>
+        <v>0.7</v>
       </c>
       <c r="I2" s="4">
-        <v>0.7</v>
+        <v>1</v>
       </c>
       <c r="J2" s="4">
-        <v>1</v>
+        <v>0.94</v>
       </c>
       <c r="K2" s="4">
         <v>1</v>
       </c>
-      <c r="L2" s="4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.3">
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A3" s="3" t="s">
         <v>3</v>
       </c>
@@ -635,34 +620,34 @@
         <v>0.3</v>
       </c>
       <c r="C3" s="5" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D3" s="4">
         <v>0.65</v>
       </c>
       <c r="E3" s="5" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="F3" s="4">
         <v>0.6</v>
       </c>
+      <c r="G3" s="4">
+        <v>0</v>
+      </c>
       <c r="H3" s="4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I3" s="4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J3" s="4">
-        <v>0</v>
+        <v>0.65</v>
       </c>
       <c r="K3" s="4">
         <v>0</v>
       </c>
-      <c r="L3" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.3">
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A4" s="3" t="s">
         <v>4</v>
       </c>
@@ -670,19 +655,22 @@
         <v>0.7</v>
       </c>
       <c r="C4" s="5" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D4" s="4">
         <f>1-D3</f>
         <v>0.35</v>
       </c>
       <c r="E4" s="5" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="F4" s="4">
         <f>1-F3</f>
         <v>0.4</v>
       </c>
+      <c r="G4" s="4">
+        <v>0</v>
+      </c>
       <c r="H4" s="4">
         <v>0</v>
       </c>
@@ -690,16 +678,14 @@
         <v>0</v>
       </c>
       <c r="J4" s="4">
-        <v>0</v>
+        <f>1-J3</f>
+        <v>0.35</v>
       </c>
       <c r="K4" s="4">
         <v>0</v>
       </c>
-      <c r="L4" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.3">
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A5" s="1" t="s">
         <v>5</v>
       </c>
@@ -707,19 +693,22 @@
         <v>0</v>
       </c>
       <c r="C5" s="5" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D5" s="4">
         <v>0</v>
       </c>
       <c r="E5" s="5" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="F5" s="4">
         <v>0</v>
       </c>
+      <c r="G5" s="4">
+        <v>1</v>
+      </c>
       <c r="H5" s="4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I5" s="4">
         <v>0</v>
@@ -730,11 +719,8 @@
       <c r="K5" s="4">
         <v>1</v>
       </c>
-      <c r="L5" s="4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.3">
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A6" s="1" t="s">
         <v>6</v>
       </c>
@@ -742,34 +728,34 @@
         <v>0.3</v>
       </c>
       <c r="C6" s="5" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D6" s="4">
         <v>0.65</v>
       </c>
       <c r="E6" s="5" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="F6" s="4">
         <v>0.9</v>
       </c>
+      <c r="G6" s="4">
+        <v>0</v>
+      </c>
       <c r="H6" s="4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I6" s="4">
-        <v>1</v>
+        <v>0.9</v>
       </c>
       <c r="J6" s="4">
-        <v>0.9</v>
+        <v>0.65</v>
       </c>
       <c r="K6" s="4">
         <v>0</v>
       </c>
-      <c r="L6" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.3">
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
         <v>7</v>
       </c>
@@ -777,36 +763,37 @@
         <v>0.7</v>
       </c>
       <c r="C7" s="5" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D7" s="4">
         <f>1-D6</f>
         <v>0.35</v>
       </c>
       <c r="E7" s="5" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="F7" s="4">
         <f>1-F6</f>
         <v>9.9999999999999978E-2</v>
       </c>
+      <c r="G7" s="4">
+        <v>0</v>
+      </c>
       <c r="H7" s="4">
         <v>0</v>
       </c>
       <c r="I7" s="4">
-        <v>0</v>
+        <v>0.1</v>
       </c>
       <c r="J7" s="4">
-        <v>0.1</v>
+        <f>1-J6</f>
+        <v>0.35</v>
       </c>
       <c r="K7" s="4">
         <v>0</v>
       </c>
-      <c r="L7" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.3">
+    </row>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A8" s="3" t="s">
         <v>8</v>
       </c>
@@ -814,34 +801,34 @@
         <v>0.83</v>
       </c>
       <c r="C8" s="5" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D8" s="4">
         <v>0.94</v>
       </c>
       <c r="E8" s="5" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="F8" s="4">
         <v>0.9</v>
       </c>
+      <c r="G8" s="4">
+        <v>1</v>
+      </c>
       <c r="H8" s="4">
-        <v>1</v>
+        <v>0.7</v>
       </c>
       <c r="I8" s="4">
-        <v>0.7</v>
+        <v>1</v>
       </c>
       <c r="J8" s="4">
-        <v>1</v>
+        <v>0.94</v>
       </c>
       <c r="K8" s="4">
         <v>1</v>
       </c>
-      <c r="L8" s="4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.3">
+    </row>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A9" s="3" t="s">
         <v>9</v>
       </c>
@@ -849,34 +836,34 @@
         <v>0.3</v>
       </c>
       <c r="C9" s="5" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D9" s="4">
         <v>0.65</v>
       </c>
       <c r="E9" s="5" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="F9" s="4">
         <v>0.9</v>
       </c>
+      <c r="G9" s="4">
+        <v>0</v>
+      </c>
       <c r="H9" s="4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I9" s="4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J9" s="4">
-        <v>0</v>
+        <v>0.65</v>
       </c>
       <c r="K9" s="4">
         <v>0</v>
       </c>
-      <c r="L9" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.3">
+    </row>
+    <row r="10" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A10" s="3" t="s">
         <v>10</v>
       </c>
@@ -884,19 +871,22 @@
         <v>0.7</v>
       </c>
       <c r="C10" s="5" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D10" s="4">
         <f>1-D9</f>
         <v>0.35</v>
       </c>
       <c r="E10" s="5" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="F10" s="4">
         <f>1-F9</f>
         <v>9.9999999999999978E-2</v>
       </c>
+      <c r="G10" s="4">
+        <v>0</v>
+      </c>
       <c r="H10" s="4">
         <v>0</v>
       </c>
@@ -904,47 +894,45 @@
         <v>0</v>
       </c>
       <c r="J10" s="4">
-        <v>0</v>
+        <f>1-J9</f>
+        <v>0.35</v>
       </c>
       <c r="K10" s="4">
         <v>0</v>
       </c>
-      <c r="L10" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.3">
+    </row>
+    <row r="11" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A11" s="2" t="s">
         <v>11</v>
       </c>
       <c r="B11" s="6">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="C11" s="7"/>
       <c r="D11" s="6">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="E11" s="7"/>
       <c r="F11" s="6">
-        <v>2021</v>
+        <v>2022</v>
+      </c>
+      <c r="G11" s="6">
+        <v>2022</v>
       </c>
       <c r="H11" s="6">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="I11" s="6">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="J11" s="6">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="K11" s="6">
-        <v>2021</v>
-      </c>
-      <c r="L11" s="6">
-        <v>2021</v>
-      </c>
-    </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.3">
+        <v>2022</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A12" s="2" t="s">
         <v>12</v>
       </c>
@@ -959,6 +947,9 @@
       <c r="F12" s="6">
         <v>2030</v>
       </c>
+      <c r="G12" s="6">
+        <v>2030</v>
+      </c>
       <c r="H12" s="6">
         <v>2030</v>
       </c>
@@ -971,11 +962,8 @@
       <c r="K12" s="6">
         <v>2030</v>
       </c>
-      <c r="L12" s="6">
-        <v>2030</v>
-      </c>
-    </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.3">
+    </row>
+    <row r="13" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A13" s="2" t="s">
         <v>13</v>
       </c>
@@ -990,6 +978,9 @@
       <c r="F13" s="4">
         <v>0.98</v>
       </c>
+      <c r="G13" s="4">
+        <v>1</v>
+      </c>
       <c r="H13" s="4">
         <v>1</v>
       </c>
@@ -997,16 +988,13 @@
         <v>1</v>
       </c>
       <c r="J13" s="4">
-        <v>1</v>
+        <v>0.98</v>
       </c>
       <c r="K13" s="4">
         <v>1</v>
       </c>
-      <c r="L13" s="4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.3">
+    </row>
+    <row r="14" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A14" s="2" t="s">
         <v>14</v>
       </c>
@@ -1021,6 +1009,9 @@
       <c r="F14" s="4">
         <v>0.5</v>
       </c>
+      <c r="G14" s="4">
+        <v>1</v>
+      </c>
       <c r="H14" s="4">
         <v>1</v>
       </c>
@@ -1028,16 +1019,13 @@
         <v>1</v>
       </c>
       <c r="J14" s="4">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="K14" s="4">
         <v>1</v>
       </c>
-      <c r="L14" s="4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.3">
+    </row>
+    <row r="15" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A15" s="2" t="s">
         <v>15</v>
       </c>
@@ -1052,6 +1040,9 @@
       <c r="F15" s="4">
         <v>0.98</v>
       </c>
+      <c r="G15" s="4">
+        <v>1</v>
+      </c>
       <c r="H15" s="4">
         <v>1</v>
       </c>
@@ -1059,12 +1050,9 @@
         <v>1</v>
       </c>
       <c r="J15" s="4">
-        <v>1</v>
+        <v>0.98</v>
       </c>
       <c r="K15" s="4">
-        <v>1</v>
-      </c>
-      <c r="L15" s="4">
         <v>1</v>
       </c>
     </row>

--- a/cbrunner/Parameters/Parameters_FelledFate.xlsx
+++ b/cbrunner/Parameters/Parameters_FelledFate.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25726"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26529"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\rhember\Documents\Code_Python\fcgadgets\cbrunner\Parameters\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DEE79623-5B44-4501-BBBE-D24F593E8258}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FCAC2353-DB0B-47B9-9FB1-1760C0EA5D96}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="828" yWindow="-108" windowWidth="22320" windowHeight="13176" xr2:uid="{7F20A1ED-3E22-4A0C-9D63-AB819F918BF5}"/>
+    <workbookView xWindow="840" yWindow="-108" windowWidth="22308" windowHeight="14616" xr2:uid="{7F20A1ED-3E22-4A0C-9D63-AB819F918BF5}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="44">
   <si>
     <t>Name</t>
   </si>
@@ -42,48 +42,24 @@
     <t>Coast</t>
   </si>
   <si>
-    <t>BiomassMerch_Removed</t>
-  </si>
-  <si>
     <t>SpecificFractionMerchPiled</t>
   </si>
   <si>
     <t>SpecificFractionMerchLeftOnSite</t>
   </si>
   <si>
-    <t>BiomassNonMerch_Removed</t>
-  </si>
-  <si>
     <t>SpecificFractionNonMerchPiled</t>
   </si>
   <si>
     <t>SpecificFractionNonMerchLeftOnSite</t>
   </si>
   <si>
-    <t>Snags_Removed</t>
-  </si>
-  <si>
-    <t>SpecificFractionSnagsPiled</t>
-  </si>
-  <si>
-    <t>SpecificFractionSnagsLeftOnSite</t>
-  </si>
-  <si>
     <t>S1_StartYear</t>
   </si>
   <si>
     <t>S1_TargetYear</t>
   </si>
   <si>
-    <t>S1_BiomassMerch_Removed</t>
-  </si>
-  <si>
-    <t>S1_BiomassNonMerch_Removed</t>
-  </si>
-  <si>
-    <t>S1_Snags_Removed</t>
-  </si>
-  <si>
     <t>Interior</t>
   </si>
   <si>
@@ -118,6 +94,78 @@
   </si>
   <si>
     <t>Sawlogs and Pellets</t>
+  </si>
+  <si>
+    <t>StemwoodMerchRemoved</t>
+  </si>
+  <si>
+    <t>StemwoodNonMerchRemoved</t>
+  </si>
+  <si>
+    <t>FoliageRemoved</t>
+  </si>
+  <si>
+    <t>SpecificFractionFoliagePiled</t>
+  </si>
+  <si>
+    <t>SpecificFractionFoliageLeftOnSite</t>
+  </si>
+  <si>
+    <t>BarkRemoved</t>
+  </si>
+  <si>
+    <t>SpecificFractionBarkPiled</t>
+  </si>
+  <si>
+    <t>SpecificFractionBarkLeftOnSite</t>
+  </si>
+  <si>
+    <t>BranchRemoved</t>
+  </si>
+  <si>
+    <t>SpecificFractionBranchPiled</t>
+  </si>
+  <si>
+    <t>SpecificFractionBranchLeftOnSite</t>
+  </si>
+  <si>
+    <t>S1_StemwoodMerchRemoved</t>
+  </si>
+  <si>
+    <t>S1_StemwoodNonMerchRemoved</t>
+  </si>
+  <si>
+    <t>S1_FoliageRemoved</t>
+  </si>
+  <si>
+    <t>S1_BarkRemoved</t>
+  </si>
+  <si>
+    <t>S1_BranchRemoved</t>
+  </si>
+  <si>
+    <t>SpecificFractionSnagStemPiled</t>
+  </si>
+  <si>
+    <t>SpecificFractionSnagStemLeftOnSite</t>
+  </si>
+  <si>
+    <t>S1_SnagStemRemoved</t>
+  </si>
+  <si>
+    <t>S1_SnagBranchRemoved</t>
+  </si>
+  <si>
+    <t>SnagBranchRemoved</t>
+  </si>
+  <si>
+    <t>SnagStemRemoved</t>
+  </si>
+  <si>
+    <t>SpecificFractionSnagBranchPiled</t>
+  </si>
+  <si>
+    <t>SpecificFractionSnagBranchLeftOnSite</t>
   </si>
 </sst>
 </file>
@@ -530,16 +578,20 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7E249324-B6FF-4D34-AC5E-99692FB5281D}">
-  <dimension ref="A1:K15"/>
+  <dimension ref="A1:K31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J2" sqref="J2:J15"/>
+      <selection activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="31.6640625" customWidth="1"/>
-    <col min="2" max="11" width="13.33203125" customWidth="1"/>
+    <col min="2" max="2" width="8.109375" customWidth="1"/>
+    <col min="3" max="3" width="22" customWidth="1"/>
+    <col min="4" max="4" width="8.77734375" customWidth="1"/>
+    <col min="5" max="5" width="22.109375" customWidth="1"/>
+    <col min="6" max="11" width="13.33203125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:11" s="13" customFormat="1" ht="43.2" x14ac:dyDescent="0.3">
@@ -550,48 +602,48 @@
         <v>1</v>
       </c>
       <c r="C1" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="D1" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="E1" s="10" t="s">
+        <v>11</v>
+      </c>
+      <c r="F1" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="G1" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="H1" s="12" t="s">
+        <v>17</v>
+      </c>
+      <c r="I1" s="9" t="s">
         <v>18</v>
       </c>
-      <c r="D1" s="10" t="s">
+      <c r="J1" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="K1" s="9" t="s">
         <v>16</v>
-      </c>
-      <c r="E1" s="10" t="s">
-        <v>19</v>
-      </c>
-      <c r="F1" s="11" t="s">
-        <v>17</v>
-      </c>
-      <c r="G1" s="9" t="s">
-        <v>23</v>
-      </c>
-      <c r="H1" s="12" t="s">
-        <v>25</v>
-      </c>
-      <c r="I1" s="9" t="s">
-        <v>26</v>
-      </c>
-      <c r="J1" s="10" t="s">
-        <v>27</v>
-      </c>
-      <c r="K1" s="9" t="s">
-        <v>24</v>
       </c>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A2" s="3" t="s">
-        <v>2</v>
+        <v>20</v>
       </c>
       <c r="B2" s="4">
         <v>0.83</v>
       </c>
       <c r="C2" s="5" t="s">
-        <v>20</v>
+        <v>12</v>
       </c>
       <c r="D2" s="4">
         <v>0.94</v>
       </c>
       <c r="E2" s="5" t="s">
-        <v>20</v>
+        <v>12</v>
       </c>
       <c r="F2" s="4">
         <v>0.9</v>
@@ -614,19 +666,19 @@
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A3" s="3" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B3" s="4">
         <v>0.3</v>
       </c>
       <c r="C3" s="5" t="s">
-        <v>20</v>
+        <v>12</v>
       </c>
       <c r="D3" s="4">
         <v>0.65</v>
       </c>
       <c r="E3" s="5" t="s">
-        <v>20</v>
+        <v>12</v>
       </c>
       <c r="F3" s="4">
         <v>0.6</v>
@@ -649,20 +701,20 @@
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A4" s="3" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B4" s="4">
         <v>0.7</v>
       </c>
       <c r="C4" s="5" t="s">
-        <v>20</v>
+        <v>12</v>
       </c>
       <c r="D4" s="4">
         <f>1-D3</f>
         <v>0.35</v>
       </c>
       <c r="E4" s="5" t="s">
-        <v>20</v>
+        <v>12</v>
       </c>
       <c r="F4" s="4">
         <f>1-F3</f>
@@ -687,19 +739,19 @@
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A5" s="1" t="s">
-        <v>5</v>
+        <v>21</v>
       </c>
       <c r="B5" s="4">
         <v>0</v>
       </c>
       <c r="C5" s="5" t="s">
-        <v>22</v>
+        <v>14</v>
       </c>
       <c r="D5" s="4">
         <v>0</v>
       </c>
       <c r="E5" s="5" t="s">
-        <v>22</v>
+        <v>14</v>
       </c>
       <c r="F5" s="4">
         <v>0</v>
@@ -722,19 +774,19 @@
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A6" s="1" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="B6" s="4">
         <v>0.3</v>
       </c>
       <c r="C6" s="5" t="s">
-        <v>21</v>
+        <v>13</v>
       </c>
       <c r="D6" s="4">
         <v>0.65</v>
       </c>
       <c r="E6" s="5" t="s">
-        <v>21</v>
+        <v>13</v>
       </c>
       <c r="F6" s="4">
         <v>0.9</v>
@@ -757,20 +809,20 @@
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="B7" s="4">
         <v>0.7</v>
       </c>
       <c r="C7" s="5" t="s">
-        <v>21</v>
+        <v>13</v>
       </c>
       <c r="D7" s="4">
         <f>1-D6</f>
         <v>0.35</v>
       </c>
       <c r="E7" s="5" t="s">
-        <v>21</v>
+        <v>13</v>
       </c>
       <c r="F7" s="4">
         <f>1-F6</f>
@@ -795,264 +847,777 @@
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A8" s="3" t="s">
-        <v>8</v>
+        <v>22</v>
       </c>
       <c r="B8" s="4">
-        <v>0.83</v>
-      </c>
-      <c r="C8" s="5" t="s">
-        <v>20</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="C8" s="5"/>
       <c r="D8" s="4">
-        <v>0.94</v>
-      </c>
-      <c r="E8" s="5" t="s">
-        <v>20</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="E8" s="5"/>
       <c r="F8" s="4">
-        <v>0.9</v>
+        <v>0</v>
       </c>
       <c r="G8" s="4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H8" s="4">
-        <v>0.7</v>
+        <v>0</v>
       </c>
       <c r="I8" s="4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J8" s="4">
-        <v>0.94</v>
+        <v>0</v>
       </c>
       <c r="K8" s="4">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A9" s="3" t="s">
-        <v>9</v>
+        <v>23</v>
       </c>
       <c r="B9" s="4">
         <v>0.3</v>
       </c>
-      <c r="C9" s="5" t="s">
-        <v>20</v>
-      </c>
+      <c r="C9" s="5"/>
       <c r="D9" s="4">
-        <v>0.65</v>
-      </c>
-      <c r="E9" s="5" t="s">
-        <v>20</v>
-      </c>
+        <v>0.3</v>
+      </c>
+      <c r="E9" s="5"/>
       <c r="F9" s="4">
-        <v>0.9</v>
+        <v>0.3</v>
       </c>
       <c r="G9" s="4">
-        <v>0</v>
+        <v>0.3</v>
       </c>
       <c r="H9" s="4">
-        <v>1</v>
+        <v>0.3</v>
       </c>
       <c r="I9" s="4">
-        <v>0</v>
+        <v>0.3</v>
       </c>
       <c r="J9" s="4">
-        <v>0.65</v>
+        <v>0.3</v>
       </c>
       <c r="K9" s="4">
-        <v>0</v>
+        <v>0.3</v>
       </c>
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A10" s="3" t="s">
-        <v>10</v>
+        <v>24</v>
       </c>
       <c r="B10" s="4">
         <v>0.7</v>
       </c>
-      <c r="C10" s="5" t="s">
-        <v>20</v>
-      </c>
+      <c r="C10" s="5"/>
       <c r="D10" s="4">
-        <f>1-D9</f>
-        <v>0.35</v>
-      </c>
-      <c r="E10" s="5" t="s">
-        <v>20</v>
-      </c>
+        <v>0.7</v>
+      </c>
+      <c r="E10" s="5"/>
       <c r="F10" s="4">
-        <f>1-F9</f>
-        <v>9.9999999999999978E-2</v>
+        <v>0.7</v>
       </c>
       <c r="G10" s="4">
-        <v>0</v>
+        <v>0.7</v>
       </c>
       <c r="H10" s="4">
-        <v>0</v>
+        <v>0.7</v>
       </c>
       <c r="I10" s="4">
-        <v>0</v>
+        <v>0.7</v>
       </c>
       <c r="J10" s="4">
-        <f>1-J9</f>
-        <v>0.35</v>
+        <v>0.7</v>
       </c>
       <c r="K10" s="4">
-        <v>0</v>
+        <v>0.7</v>
       </c>
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A11" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="B11" s="6">
-        <v>2022</v>
-      </c>
-      <c r="C11" s="7"/>
-      <c r="D11" s="6">
-        <v>2022</v>
-      </c>
-      <c r="E11" s="7"/>
-      <c r="F11" s="6">
-        <v>2022</v>
-      </c>
-      <c r="G11" s="6">
-        <v>2022</v>
-      </c>
-      <c r="H11" s="6">
-        <v>2022</v>
-      </c>
-      <c r="I11" s="6">
-        <v>2022</v>
-      </c>
-      <c r="J11" s="6">
-        <v>2022</v>
-      </c>
-      <c r="K11" s="6">
-        <v>2022</v>
+      <c r="A11" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="B11" s="4">
+        <v>0.83</v>
+      </c>
+      <c r="C11" s="5"/>
+      <c r="D11" s="4">
+        <v>0.94</v>
+      </c>
+      <c r="E11" s="5"/>
+      <c r="F11" s="4">
+        <v>0.9</v>
+      </c>
+      <c r="G11" s="4">
+        <v>1</v>
+      </c>
+      <c r="H11" s="4">
+        <v>0.94</v>
+      </c>
+      <c r="I11" s="4">
+        <v>1</v>
+      </c>
+      <c r="J11" s="4">
+        <v>0.94</v>
+      </c>
+      <c r="K11" s="4">
+        <v>1</v>
       </c>
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A12" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="B12" s="6">
-        <v>2030</v>
-      </c>
-      <c r="C12" s="7"/>
-      <c r="D12" s="6">
-        <v>2030</v>
-      </c>
-      <c r="E12" s="7"/>
-      <c r="F12" s="6">
-        <v>2030</v>
-      </c>
-      <c r="G12" s="6">
-        <v>2030</v>
-      </c>
-      <c r="H12" s="6">
-        <v>2030</v>
-      </c>
-      <c r="I12" s="6">
-        <v>2030</v>
-      </c>
-      <c r="J12" s="6">
-        <v>2030</v>
-      </c>
-      <c r="K12" s="6">
-        <v>2030</v>
+      <c r="A12" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="B12" s="4">
+        <v>0.3</v>
+      </c>
+      <c r="C12" s="5"/>
+      <c r="D12" s="4">
+        <v>0.65</v>
+      </c>
+      <c r="E12" s="5"/>
+      <c r="F12" s="4">
+        <v>0.6</v>
+      </c>
+      <c r="G12" s="4">
+        <v>0</v>
+      </c>
+      <c r="H12" s="4">
+        <v>0.65</v>
+      </c>
+      <c r="I12" s="4">
+        <v>0</v>
+      </c>
+      <c r="J12" s="4">
+        <v>0.65</v>
+      </c>
+      <c r="K12" s="4">
+        <v>0</v>
       </c>
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A13" s="2" t="s">
-        <v>13</v>
+      <c r="A13" s="1" t="s">
+        <v>27</v>
       </c>
       <c r="B13" s="4">
-        <v>0.98</v>
+        <v>0.7</v>
       </c>
       <c r="C13" s="5"/>
       <c r="D13" s="4">
-        <v>0.98</v>
+        <f>1-D12</f>
+        <v>0.35</v>
       </c>
       <c r="E13" s="5"/>
       <c r="F13" s="4">
-        <v>0.98</v>
+        <f>1-F12</f>
+        <v>0.4</v>
       </c>
       <c r="G13" s="4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H13" s="4">
-        <v>1</v>
+        <f>1-H12</f>
+        <v>0.35</v>
       </c>
       <c r="I13" s="4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J13" s="4">
-        <v>0.98</v>
+        <f>1-J12</f>
+        <v>0.35</v>
       </c>
       <c r="K13" s="4">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A14" s="2" t="s">
-        <v>14</v>
+      <c r="A14" s="3" t="s">
+        <v>28</v>
       </c>
       <c r="B14" s="4">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="C14" s="5"/>
       <c r="D14" s="4">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="E14" s="5"/>
       <c r="F14" s="4">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="G14" s="4">
         <v>1</v>
       </c>
       <c r="H14" s="4">
-        <v>1</v>
+        <v>0.94</v>
       </c>
       <c r="I14" s="4">
-        <v>1</v>
+        <v>0.94</v>
       </c>
       <c r="J14" s="4">
-        <v>0.5</v>
+        <v>0.94</v>
       </c>
       <c r="K14" s="4">
-        <v>1</v>
+        <v>0.94</v>
       </c>
     </row>
     <row r="15" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A15" s="2" t="s">
-        <v>15</v>
+      <c r="A15" s="3" t="s">
+        <v>29</v>
       </c>
       <c r="B15" s="4">
-        <v>0.98</v>
+        <v>0.3</v>
       </c>
       <c r="C15" s="5"/>
       <c r="D15" s="4">
-        <v>0.98</v>
+        <v>0.3</v>
       </c>
       <c r="E15" s="5"/>
       <c r="F15" s="4">
-        <v>0.98</v>
+        <v>0.3</v>
       </c>
       <c r="G15" s="4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H15" s="4">
-        <v>1</v>
+        <v>0.65</v>
       </c>
       <c r="I15" s="4">
-        <v>1</v>
+        <v>0.65</v>
       </c>
       <c r="J15" s="4">
-        <v>0.98</v>
+        <v>0.65</v>
       </c>
       <c r="K15" s="4">
+        <v>0.65</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A16" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="B16" s="4">
+        <v>0.7</v>
+      </c>
+      <c r="C16" s="5"/>
+      <c r="D16" s="4">
+        <v>0.7</v>
+      </c>
+      <c r="E16" s="5"/>
+      <c r="F16" s="4">
+        <v>0.7</v>
+      </c>
+      <c r="G16" s="4">
+        <v>0</v>
+      </c>
+      <c r="H16" s="4">
+        <f>1-H15</f>
+        <v>0.35</v>
+      </c>
+      <c r="I16" s="4">
+        <f>1-I15</f>
+        <v>0.35</v>
+      </c>
+      <c r="J16" s="4">
+        <f>1-J15</f>
+        <v>0.35</v>
+      </c>
+      <c r="K16" s="4">
+        <f>1-K15</f>
+        <v>0.35</v>
+      </c>
+    </row>
+    <row r="17" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A17" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="B17" s="4">
+        <v>0.83</v>
+      </c>
+      <c r="C17" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="D17" s="4">
+        <v>0.94</v>
+      </c>
+      <c r="E17" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="F17" s="4">
+        <v>0.9</v>
+      </c>
+      <c r="G17" s="4">
+        <v>1</v>
+      </c>
+      <c r="H17" s="4">
+        <v>0.7</v>
+      </c>
+      <c r="I17" s="4">
+        <v>1</v>
+      </c>
+      <c r="J17" s="4">
+        <v>0.94</v>
+      </c>
+      <c r="K17" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A18" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="B18" s="4">
+        <v>0.3</v>
+      </c>
+      <c r="C18" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="D18" s="4">
+        <v>0.65</v>
+      </c>
+      <c r="E18" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="F18" s="4">
+        <v>0.9</v>
+      </c>
+      <c r="G18" s="4">
+        <v>0</v>
+      </c>
+      <c r="H18" s="4">
+        <v>1</v>
+      </c>
+      <c r="I18" s="4">
+        <v>0</v>
+      </c>
+      <c r="J18" s="4">
+        <v>0.65</v>
+      </c>
+      <c r="K18" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A19" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="B19" s="4">
+        <v>0.7</v>
+      </c>
+      <c r="C19" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="D19" s="4">
+        <f>1-D18</f>
+        <v>0.35</v>
+      </c>
+      <c r="E19" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="F19" s="4">
+        <f>1-F18</f>
+        <v>9.9999999999999978E-2</v>
+      </c>
+      <c r="G19" s="4">
+        <v>0</v>
+      </c>
+      <c r="H19" s="4">
+        <v>0</v>
+      </c>
+      <c r="I19" s="4">
+        <v>0</v>
+      </c>
+      <c r="J19" s="4">
+        <f>1-J18</f>
+        <v>0.35</v>
+      </c>
+      <c r="K19" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A20" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="B20" s="4">
+        <v>0</v>
+      </c>
+      <c r="C20" s="5"/>
+      <c r="D20" s="4">
+        <v>0</v>
+      </c>
+      <c r="E20" s="5"/>
+      <c r="F20" s="4">
+        <v>0</v>
+      </c>
+      <c r="G20" s="4">
+        <v>1</v>
+      </c>
+      <c r="H20" s="4">
+        <v>0</v>
+      </c>
+      <c r="I20" s="4">
+        <v>0</v>
+      </c>
+      <c r="J20" s="4">
+        <v>0</v>
+      </c>
+      <c r="K20" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A21" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="B21" s="4">
+        <v>0.3</v>
+      </c>
+      <c r="C21" s="5"/>
+      <c r="D21" s="4">
+        <v>0.65</v>
+      </c>
+      <c r="E21" s="5"/>
+      <c r="F21" s="4">
+        <v>0.3</v>
+      </c>
+      <c r="G21" s="4">
+        <v>0</v>
+      </c>
+      <c r="H21" s="4">
+        <v>0.3</v>
+      </c>
+      <c r="I21" s="4">
+        <v>0.3</v>
+      </c>
+      <c r="J21" s="4">
+        <v>0.3</v>
+      </c>
+      <c r="K21" s="4">
+        <v>0.3</v>
+      </c>
+    </row>
+    <row r="22" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A22" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="B22" s="4">
+        <v>0.7</v>
+      </c>
+      <c r="C22" s="5"/>
+      <c r="D22" s="4">
+        <f>1-D21</f>
+        <v>0.35</v>
+      </c>
+      <c r="E22" s="5"/>
+      <c r="F22" s="4">
+        <v>0.7</v>
+      </c>
+      <c r="G22" s="4">
+        <v>0</v>
+      </c>
+      <c r="H22" s="4">
+        <v>0.7</v>
+      </c>
+      <c r="I22" s="4">
+        <v>0.7</v>
+      </c>
+      <c r="J22" s="4">
+        <v>0.7</v>
+      </c>
+      <c r="K22" s="4">
+        <v>0.7</v>
+      </c>
+    </row>
+    <row r="23" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A23" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B23" s="6">
+        <v>2022</v>
+      </c>
+      <c r="C23" s="7"/>
+      <c r="D23" s="6">
+        <v>2022</v>
+      </c>
+      <c r="E23" s="7"/>
+      <c r="F23" s="6">
+        <v>2022</v>
+      </c>
+      <c r="G23" s="6">
+        <v>2022</v>
+      </c>
+      <c r="H23" s="6">
+        <v>2022</v>
+      </c>
+      <c r="I23" s="6">
+        <v>2022</v>
+      </c>
+      <c r="J23" s="6">
+        <v>2022</v>
+      </c>
+      <c r="K23" s="6">
+        <v>2022</v>
+      </c>
+    </row>
+    <row r="24" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A24" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B24" s="6">
+        <v>2030</v>
+      </c>
+      <c r="C24" s="7"/>
+      <c r="D24" s="6">
+        <v>2030</v>
+      </c>
+      <c r="E24" s="7"/>
+      <c r="F24" s="6">
+        <v>2030</v>
+      </c>
+      <c r="G24" s="6">
+        <v>2030</v>
+      </c>
+      <c r="H24" s="6">
+        <v>2030</v>
+      </c>
+      <c r="I24" s="6">
+        <v>2030</v>
+      </c>
+      <c r="J24" s="6">
+        <v>2030</v>
+      </c>
+      <c r="K24" s="6">
+        <v>2030</v>
+      </c>
+    </row>
+    <row r="25" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A25" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="B25" s="4">
+        <v>0.98</v>
+      </c>
+      <c r="C25" s="5"/>
+      <c r="D25" s="4">
+        <v>0.98</v>
+      </c>
+      <c r="E25" s="5"/>
+      <c r="F25" s="4">
+        <v>0.98</v>
+      </c>
+      <c r="G25" s="4">
+        <v>1</v>
+      </c>
+      <c r="H25" s="4">
+        <v>1</v>
+      </c>
+      <c r="I25" s="4">
+        <v>1</v>
+      </c>
+      <c r="J25" s="4">
+        <v>0.98</v>
+      </c>
+      <c r="K25" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="26" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A26" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="B26" s="4">
+        <v>0.5</v>
+      </c>
+      <c r="C26" s="5"/>
+      <c r="D26" s="4">
+        <v>0.5</v>
+      </c>
+      <c r="E26" s="5"/>
+      <c r="F26" s="4">
+        <v>0.5</v>
+      </c>
+      <c r="G26" s="4">
+        <v>1</v>
+      </c>
+      <c r="H26" s="4">
+        <v>1</v>
+      </c>
+      <c r="I26" s="4">
+        <v>1</v>
+      </c>
+      <c r="J26" s="4">
+        <v>0.5</v>
+      </c>
+      <c r="K26" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="27" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A27" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="B27" s="4">
+        <f>B8</f>
+        <v>0</v>
+      </c>
+      <c r="C27" s="5"/>
+      <c r="D27" s="4">
+        <f>D8</f>
+        <v>0</v>
+      </c>
+      <c r="E27" s="5"/>
+      <c r="F27" s="4">
+        <f>F8</f>
+        <v>0</v>
+      </c>
+      <c r="G27" s="4">
+        <f>G8</f>
+        <v>0</v>
+      </c>
+      <c r="H27" s="4">
+        <f>H8</f>
+        <v>0</v>
+      </c>
+      <c r="I27" s="4">
+        <f t="shared" ref="I27:K27" si="0">I8</f>
+        <v>0</v>
+      </c>
+      <c r="J27" s="4">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="K27" s="4">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A28" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="B28" s="4">
+        <v>0.98</v>
+      </c>
+      <c r="C28" s="5"/>
+      <c r="D28" s="4">
+        <v>0.98</v>
+      </c>
+      <c r="E28" s="5"/>
+      <c r="F28" s="4">
+        <v>0.98</v>
+      </c>
+      <c r="G28" s="4">
+        <v>0.98</v>
+      </c>
+      <c r="H28" s="4">
+        <v>0.98</v>
+      </c>
+      <c r="I28" s="4">
+        <v>0.98</v>
+      </c>
+      <c r="J28" s="4">
+        <v>0.98</v>
+      </c>
+      <c r="K28" s="4">
+        <v>0.98</v>
+      </c>
+    </row>
+    <row r="29" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A29" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="B29" s="4">
+        <v>0</v>
+      </c>
+      <c r="C29" s="5"/>
+      <c r="D29" s="4">
+        <v>0</v>
+      </c>
+      <c r="E29" s="5"/>
+      <c r="F29" s="4">
+        <v>0</v>
+      </c>
+      <c r="G29" s="4">
+        <v>0</v>
+      </c>
+      <c r="H29" s="4">
+        <v>0</v>
+      </c>
+      <c r="I29" s="4">
+        <v>0</v>
+      </c>
+      <c r="J29" s="4">
+        <v>0</v>
+      </c>
+      <c r="K29" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A30" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="B30" s="4">
+        <v>0.98</v>
+      </c>
+      <c r="C30" s="5"/>
+      <c r="D30" s="4">
+        <v>0.98</v>
+      </c>
+      <c r="E30" s="5"/>
+      <c r="F30" s="4">
+        <v>0.98</v>
+      </c>
+      <c r="G30" s="4">
+        <v>1</v>
+      </c>
+      <c r="H30" s="4">
+        <v>1</v>
+      </c>
+      <c r="I30" s="4">
+        <v>1</v>
+      </c>
+      <c r="J30" s="4">
+        <v>0.98</v>
+      </c>
+      <c r="K30" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="31" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A31" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="B31" s="4">
+        <v>0.98</v>
+      </c>
+      <c r="C31" s="5"/>
+      <c r="D31" s="4">
+        <v>0.98</v>
+      </c>
+      <c r="E31" s="5"/>
+      <c r="F31" s="4">
+        <v>0.98</v>
+      </c>
+      <c r="G31" s="4">
+        <v>1</v>
+      </c>
+      <c r="H31" s="4">
+        <v>1</v>
+      </c>
+      <c r="I31" s="4">
+        <v>1</v>
+      </c>
+      <c r="J31" s="4">
+        <v>0.98</v>
+      </c>
+      <c r="K31" s="4">
         <v>1</v>
       </c>
     </row>

--- a/cbrunner/Parameters/Parameters_FelledFate.xlsx
+++ b/cbrunner/Parameters/Parameters_FelledFate.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28324"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28730"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\My Drive\Code_Python\fcgadgets\cbrunner\Parameters\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{298F878A-F7D3-4F3A-B95B-1288EC5B320F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9D76CA6F-0FD2-4479-9007-B356D3957719}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="810" yWindow="-120" windowWidth="20910" windowHeight="13740" xr2:uid="{7F20A1ED-3E22-4A0C-9D63-AB819F918BF5}"/>
+    <workbookView xWindow="810" yWindow="-120" windowWidth="23310" windowHeight="13740" xr2:uid="{7F20A1ED-3E22-4A0C-9D63-AB819F918BF5}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="77" uniqueCount="59">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="76" uniqueCount="58">
   <si>
     <t>Name</t>
   </si>
@@ -132,9 +132,6 @@
     <t>DeadBranchRemoved</t>
   </si>
   <si>
-    <t>CT1</t>
-  </si>
-  <si>
     <t>CT2</t>
   </si>
   <si>
@@ -210,7 +207,7 @@
     <t>0.7 Set equal to Waste Analysis 2022</t>
   </si>
   <si>
-    <t>Coast OLD</t>
+    <t>Full Utilization</t>
   </si>
 </sst>
 </file>
@@ -637,24 +634,24 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7E249324-B6FF-4D34-AC5E-99692FB5281D}">
-  <dimension ref="A1:O39"/>
+  <dimension ref="A1:N39"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B28" sqref="B28"/>
+      <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="41.140625" customWidth="1"/>
-    <col min="2" max="3" width="8.140625" customWidth="1"/>
-    <col min="4" max="4" width="22" customWidth="1"/>
-    <col min="5" max="5" width="8.7109375" customWidth="1"/>
-    <col min="6" max="6" width="22.140625" customWidth="1"/>
-    <col min="7" max="9" width="12.5703125" customWidth="1"/>
-    <col min="10" max="15" width="13.28515625" customWidth="1"/>
+    <col min="2" max="2" width="8.140625" customWidth="1"/>
+    <col min="3" max="3" width="22" customWidth="1"/>
+    <col min="4" max="4" width="8.7109375" customWidth="1"/>
+    <col min="5" max="5" width="22.140625" customWidth="1"/>
+    <col min="6" max="8" width="12.5703125" customWidth="1"/>
+    <col min="9" max="14" width="13.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" s="13" customFormat="1" ht="45" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:14" s="13" customFormat="1" ht="45" x14ac:dyDescent="0.25">
       <c r="A1" s="8" t="s">
         <v>0</v>
       </c>
@@ -662,16 +659,16 @@
         <v>1</v>
       </c>
       <c r="C1" s="9" t="s">
-        <v>58</v>
-      </c>
-      <c r="D1" s="9" t="s">
         <v>6</v>
       </c>
+      <c r="D1" s="10" t="s">
+        <v>4</v>
+      </c>
       <c r="E1" s="10" t="s">
-        <v>4</v>
-      </c>
-      <c r="F1" s="10" t="s">
         <v>7</v>
+      </c>
+      <c r="F1" s="14" t="s">
+        <v>57</v>
       </c>
       <c r="G1" s="14" t="s">
         <v>32</v>
@@ -679,47 +676,44 @@
       <c r="H1" s="14" t="s">
         <v>33</v>
       </c>
-      <c r="I1" s="14" t="s">
-        <v>34</v>
-      </c>
-      <c r="J1" s="11" t="s">
+      <c r="I1" s="11" t="s">
         <v>5</v>
       </c>
-      <c r="K1" s="9" t="s">
+      <c r="J1" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="L1" s="12" t="s">
+      <c r="K1" s="12" t="s">
         <v>13</v>
       </c>
-      <c r="M1" s="9" t="s">
+      <c r="L1" s="9" t="s">
         <v>14</v>
       </c>
-      <c r="N1" s="10" t="s">
+      <c r="M1" s="10" t="s">
         <v>15</v>
       </c>
-      <c r="O1" s="9" t="s">
+      <c r="N1" s="9" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="2" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
         <v>22</v>
       </c>
       <c r="B2" s="4">
         <v>0.83</v>
       </c>
-      <c r="C2" s="4">
-        <v>0.83</v>
-      </c>
-      <c r="D2" s="5" t="s">
-        <v>55</v>
-      </c>
-      <c r="E2" s="4">
+      <c r="C2" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="D2" s="4">
         <v>0.94</v>
       </c>
-      <c r="F2" s="5" t="s">
+      <c r="E2" s="5" t="s">
         <v>8</v>
       </c>
+      <c r="F2" s="4">
+        <v>1</v>
+      </c>
       <c r="G2" s="4">
         <v>-999</v>
       </c>
@@ -744,32 +738,29 @@
       <c r="N2" s="4">
         <v>-999</v>
       </c>
-      <c r="O2" s="4">
-        <v>-999</v>
-      </c>
-    </row>
-    <row r="3" spans="1:15" x14ac:dyDescent="0.25">
+    </row>
+    <row r="3" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B3" s="4">
         <f>1-B2</f>
         <v>0.17000000000000004</v>
       </c>
-      <c r="C3" s="4">
-        <f>1-C2</f>
-        <v>0.17000000000000004</v>
-      </c>
-      <c r="D3" s="5" t="s">
+      <c r="C3" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="E3" s="4">
-        <f>0.7*(1-E2)</f>
+      <c r="D3" s="4">
+        <f>0.7*(1-D2)</f>
         <v>4.2000000000000037E-2</v>
       </c>
-      <c r="F3" s="5" t="s">
+      <c r="E3" s="5" t="s">
         <v>8</v>
       </c>
+      <c r="F3" s="4">
+        <f>0.7*(1-F2)</f>
+        <v>0</v>
+      </c>
       <c r="G3" s="4">
         <v>-999</v>
       </c>
@@ -794,30 +785,28 @@
       <c r="N3" s="4">
         <v>-999</v>
       </c>
-      <c r="O3" s="4">
-        <v>-999</v>
-      </c>
-    </row>
-    <row r="4" spans="1:15" x14ac:dyDescent="0.25">
+    </row>
+    <row r="4" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B4" s="4">
         <v>0</v>
       </c>
-      <c r="C4" s="4">
-        <v>0</v>
-      </c>
-      <c r="D4" s="5" t="s">
+      <c r="C4" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="E4" s="4">
-        <f>0.3*(1-E2)</f>
+      <c r="D4" s="4">
+        <f>0.3*(1-D2)</f>
         <v>1.8000000000000016E-2</v>
       </c>
-      <c r="F4" s="5" t="s">
+      <c r="E4" s="5" t="s">
         <v>8</v>
       </c>
+      <c r="F4" s="4">
+        <f>0.3*(1-F2)</f>
+        <v>0</v>
+      </c>
       <c r="G4" s="4">
         <v>-999</v>
       </c>
@@ -842,29 +831,26 @@
       <c r="N4" s="4">
         <v>-999</v>
       </c>
-      <c r="O4" s="4">
-        <v>-999</v>
-      </c>
-    </row>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.25">
+    </row>
+    <row r="5" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
         <v>23</v>
       </c>
       <c r="B5" s="4">
         <v>0</v>
       </c>
-      <c r="C5" s="4">
-        <v>0</v>
-      </c>
-      <c r="D5" s="5" t="s">
+      <c r="C5" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="E5" s="4">
-        <v>0</v>
-      </c>
-      <c r="F5" s="5" t="s">
+      <c r="D5" s="4">
+        <v>0</v>
+      </c>
+      <c r="E5" s="5" t="s">
         <v>10</v>
       </c>
+      <c r="F5" s="4">
+        <v>0.9</v>
+      </c>
       <c r="G5" s="4">
         <v>-999</v>
       </c>
@@ -889,30 +875,27 @@
       <c r="N5" s="4">
         <v>-999</v>
       </c>
-      <c r="O5" s="4">
-        <v>-999</v>
-      </c>
-    </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.25">
+    </row>
+    <row r="6" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B6" s="4">
         <v>0.3</v>
       </c>
-      <c r="C6" s="4">
-        <v>0.25</v>
-      </c>
-      <c r="D6" s="5" t="s">
-        <v>56</v>
-      </c>
-      <c r="E6" s="4">
-        <f>0.7*(1-E5)</f>
+      <c r="C6" s="5" t="s">
+        <v>55</v>
+      </c>
+      <c r="D6" s="4">
+        <f>0.7*(1-D5)</f>
         <v>0.7</v>
       </c>
-      <c r="F6" s="5" t="s">
+      <c r="E6" s="5" t="s">
         <v>9</v>
       </c>
+      <c r="F6" s="4">
+        <v>0</v>
+      </c>
       <c r="G6" s="4">
         <v>-999</v>
       </c>
@@ -937,30 +920,27 @@
       <c r="N6" s="4">
         <v>-999</v>
       </c>
-      <c r="O6" s="4">
-        <v>-999</v>
-      </c>
-    </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.25">
+    </row>
+    <row r="7" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B7" s="4">
         <v>0.7</v>
       </c>
-      <c r="C7" s="4">
-        <v>0.75</v>
-      </c>
-      <c r="D7" s="5" t="s">
-        <v>57</v>
-      </c>
-      <c r="E7" s="4">
-        <f>0.3*(1-E5)</f>
+      <c r="C7" s="5" t="s">
+        <v>56</v>
+      </c>
+      <c r="D7" s="4">
+        <f>0.3*(1-D5)</f>
         <v>0.3</v>
       </c>
-      <c r="F7" s="5" t="s">
+      <c r="E7" s="5" t="s">
         <v>9</v>
       </c>
+      <c r="F7" s="4">
+        <v>0.1</v>
+      </c>
       <c r="G7" s="4">
         <v>-999</v>
       </c>
@@ -985,25 +965,22 @@
       <c r="N7" s="4">
         <v>-999</v>
       </c>
-      <c r="O7" s="4">
-        <v>-999</v>
-      </c>
-    </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.25">
+    </row>
+    <row r="8" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A8" s="3" t="s">
         <v>16</v>
       </c>
       <c r="B8" s="4">
         <v>0</v>
       </c>
-      <c r="C8" s="4">
-        <v>0</v>
-      </c>
-      <c r="D8" s="5"/>
-      <c r="E8" s="4">
-        <v>0</v>
-      </c>
-      <c r="F8" s="5"/>
+      <c r="C8" s="5"/>
+      <c r="D8" s="4">
+        <v>0</v>
+      </c>
+      <c r="E8" s="5"/>
+      <c r="F8" s="4">
+        <v>0</v>
+      </c>
       <c r="G8" s="4">
         <v>-999</v>
       </c>
@@ -1028,70 +1005,64 @@
       <c r="N8" s="4">
         <v>-999</v>
       </c>
-      <c r="O8" s="4">
-        <v>-999</v>
-      </c>
-    </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.25">
+    </row>
+    <row r="9" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A9" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="B9" s="4">
+        <v>0</v>
+      </c>
+      <c r="C9" s="5"/>
+      <c r="D9" s="4">
+        <f>0.7*(1-D8)</f>
+        <v>0.7</v>
+      </c>
+      <c r="E9" s="5"/>
+      <c r="F9" s="4">
+        <v>0</v>
+      </c>
+      <c r="G9" s="4">
+        <v>-999</v>
+      </c>
+      <c r="H9" s="4">
+        <v>-999</v>
+      </c>
+      <c r="I9" s="4">
+        <v>-999</v>
+      </c>
+      <c r="J9" s="4">
+        <v>-999</v>
+      </c>
+      <c r="K9" s="4">
+        <v>-999</v>
+      </c>
+      <c r="L9" s="4">
+        <v>-999</v>
+      </c>
+      <c r="M9" s="4">
+        <v>-999</v>
+      </c>
+      <c r="N9" s="4">
+        <v>-999</v>
+      </c>
+    </row>
+    <row r="10" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A10" s="3" t="s">
         <v>39</v>
       </c>
-      <c r="B9" s="4">
-        <v>0</v>
-      </c>
-      <c r="C9" s="4">
-        <v>0</v>
-      </c>
-      <c r="D9" s="5"/>
-      <c r="E9" s="4">
-        <f>0.7*(1-E8)</f>
-        <v>0.7</v>
-      </c>
-      <c r="F9" s="5"/>
-      <c r="G9" s="4">
-        <v>-999</v>
-      </c>
-      <c r="H9" s="4">
-        <v>-999</v>
-      </c>
-      <c r="I9" s="4">
-        <v>-999</v>
-      </c>
-      <c r="J9" s="4">
-        <v>-999</v>
-      </c>
-      <c r="K9" s="4">
-        <v>-999</v>
-      </c>
-      <c r="L9" s="4">
-        <v>-999</v>
-      </c>
-      <c r="M9" s="4">
-        <v>-999</v>
-      </c>
-      <c r="N9" s="4">
-        <v>-999</v>
-      </c>
-      <c r="O9" s="4">
-        <v>-999</v>
-      </c>
-    </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A10" s="3" t="s">
-        <v>40</v>
-      </c>
       <c r="B10" s="4">
         <v>1</v>
       </c>
-      <c r="C10" s="4">
-        <v>1</v>
-      </c>
-      <c r="D10" s="5"/>
-      <c r="E10" s="4">
-        <f>0.3*(1-E8)</f>
+      <c r="C10" s="5"/>
+      <c r="D10" s="4">
+        <f>0.3*(1-D8)</f>
         <v>0.3</v>
       </c>
-      <c r="F10" s="5"/>
+      <c r="E10" s="5"/>
+      <c r="F10" s="4">
+        <v>1</v>
+      </c>
       <c r="G10" s="4">
         <v>-999</v>
       </c>
@@ -1116,25 +1087,22 @@
       <c r="N10" s="4">
         <v>-999</v>
       </c>
-      <c r="O10" s="4">
-        <v>-999</v>
-      </c>
-    </row>
-    <row r="11" spans="1:15" x14ac:dyDescent="0.25">
+    </row>
+    <row r="11" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
         <v>17</v>
       </c>
       <c r="B11" s="4">
         <v>0.83</v>
       </c>
-      <c r="C11" s="4">
-        <v>0.83</v>
-      </c>
-      <c r="D11" s="5"/>
-      <c r="E11" s="4">
+      <c r="C11" s="5"/>
+      <c r="D11" s="4">
         <v>0.94</v>
       </c>
-      <c r="F11" s="5"/>
+      <c r="E11" s="5"/>
+      <c r="F11" s="4">
+        <v>1</v>
+      </c>
       <c r="G11" s="4">
         <v>-999</v>
       </c>
@@ -1159,28 +1127,25 @@
       <c r="N11" s="4">
         <v>-999</v>
       </c>
-      <c r="O11" s="4">
-        <v>-999</v>
-      </c>
-    </row>
-    <row r="12" spans="1:15" x14ac:dyDescent="0.25">
+    </row>
+    <row r="12" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B12" s="4">
         <f>1-B11</f>
         <v>0.17000000000000004</v>
       </c>
-      <c r="C12" s="4">
-        <f>1-C11</f>
-        <v>0.17000000000000004</v>
-      </c>
-      <c r="D12" s="5"/>
-      <c r="E12" s="4">
-        <f>0.7*(1-E11)</f>
+      <c r="C12" s="5"/>
+      <c r="D12" s="4">
+        <f>0.7*(1-D11)</f>
         <v>4.2000000000000037E-2</v>
       </c>
-      <c r="F12" s="5"/>
+      <c r="E12" s="5"/>
+      <c r="F12" s="4">
+        <f>0.7*(1-F11)</f>
+        <v>0</v>
+      </c>
       <c r="G12" s="4">
         <v>-999</v>
       </c>
@@ -1205,26 +1170,24 @@
       <c r="N12" s="4">
         <v>-999</v>
       </c>
-      <c r="O12" s="4">
-        <v>-999</v>
-      </c>
-    </row>
-    <row r="13" spans="1:15" x14ac:dyDescent="0.25">
+    </row>
+    <row r="13" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B13" s="4">
         <v>0</v>
       </c>
-      <c r="C13" s="4">
-        <v>0</v>
-      </c>
-      <c r="D13" s="5"/>
-      <c r="E13" s="4">
-        <f>0.3*(1-E11)</f>
+      <c r="C13" s="5"/>
+      <c r="D13" s="4">
+        <f>0.3*(1-D11)</f>
         <v>1.8000000000000016E-2</v>
       </c>
-      <c r="F13" s="5"/>
+      <c r="E13" s="5"/>
+      <c r="F13" s="4">
+        <f>0.3*(1-F11)</f>
+        <v>0</v>
+      </c>
       <c r="G13" s="4">
         <v>-999</v>
       </c>
@@ -1249,25 +1212,22 @@
       <c r="N13" s="4">
         <v>-999</v>
       </c>
-      <c r="O13" s="4">
-        <v>-999</v>
-      </c>
-    </row>
-    <row r="14" spans="1:15" x14ac:dyDescent="0.25">
+    </row>
+    <row r="14" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A14" s="3" t="s">
         <v>18</v>
       </c>
       <c r="B14" s="4">
         <v>0</v>
       </c>
-      <c r="C14" s="4">
-        <v>0</v>
-      </c>
-      <c r="D14" s="5"/>
-      <c r="E14" s="4">
-        <v>0</v>
-      </c>
-      <c r="F14" s="5"/>
+      <c r="C14" s="5"/>
+      <c r="D14" s="4">
+        <v>0</v>
+      </c>
+      <c r="E14" s="5"/>
+      <c r="F14" s="4">
+        <v>0</v>
+      </c>
       <c r="G14" s="4">
         <v>-999</v>
       </c>
@@ -1292,26 +1252,23 @@
       <c r="N14" s="4">
         <v>-999</v>
       </c>
-      <c r="O14" s="4">
-        <v>-999</v>
-      </c>
-    </row>
-    <row r="15" spans="1:15" x14ac:dyDescent="0.25">
+    </row>
+    <row r="15" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A15" s="3" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B15" s="4">
         <v>0.3</v>
       </c>
-      <c r="C15" s="4">
-        <v>0.5</v>
-      </c>
-      <c r="D15" s="5"/>
-      <c r="E15" s="4">
-        <f>0.7*(1-E14)</f>
+      <c r="C15" s="5"/>
+      <c r="D15" s="4">
+        <f>0.7*(1-D14)</f>
         <v>0.7</v>
       </c>
-      <c r="F15" s="5"/>
+      <c r="E15" s="5"/>
+      <c r="F15" s="4">
+        <v>1</v>
+      </c>
       <c r="G15" s="4">
         <v>-999</v>
       </c>
@@ -1336,26 +1293,23 @@
       <c r="N15" s="4">
         <v>-999</v>
       </c>
-      <c r="O15" s="4">
-        <v>-999</v>
-      </c>
-    </row>
-    <row r="16" spans="1:15" x14ac:dyDescent="0.25">
+    </row>
+    <row r="16" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A16" s="3" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B16" s="4">
         <v>0.7</v>
       </c>
-      <c r="C16" s="4">
-        <v>0.5</v>
-      </c>
-      <c r="D16" s="5"/>
-      <c r="E16" s="4">
-        <f>0.3*(1-E14)</f>
+      <c r="C16" s="5"/>
+      <c r="D16" s="4">
+        <f>0.3*(1-D14)</f>
         <v>0.3</v>
       </c>
-      <c r="F16" s="5"/>
+      <c r="E16" s="5"/>
+      <c r="F16" s="4">
+        <v>0</v>
+      </c>
       <c r="G16" s="4">
         <v>-999</v>
       </c>
@@ -1380,29 +1334,26 @@
       <c r="N16" s="4">
         <v>-999</v>
       </c>
-      <c r="O16" s="4">
-        <v>-999</v>
-      </c>
-    </row>
-    <row r="17" spans="1:15" x14ac:dyDescent="0.25">
+    </row>
+    <row r="17" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A17" s="1" t="s">
         <v>24</v>
       </c>
       <c r="B17" s="4">
         <v>0</v>
       </c>
-      <c r="C17" s="4">
-        <v>0</v>
-      </c>
-      <c r="D17" s="5" t="s">
+      <c r="C17" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="E17" s="4">
+      <c r="D17" s="4">
         <v>0.94</v>
       </c>
-      <c r="F17" s="5" t="s">
+      <c r="E17" s="5" t="s">
         <v>8</v>
       </c>
+      <c r="F17" s="4">
+        <v>0.9</v>
+      </c>
       <c r="G17" s="4">
         <v>-999</v>
       </c>
@@ -1427,32 +1378,28 @@
       <c r="N17" s="4">
         <v>-999</v>
       </c>
-      <c r="O17" s="4">
-        <v>-999</v>
-      </c>
-    </row>
-    <row r="18" spans="1:15" x14ac:dyDescent="0.25">
+    </row>
+    <row r="18" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A18" s="1" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B18" s="4">
         <f>0.3*(1-B17)</f>
         <v>0.3</v>
       </c>
-      <c r="C18" s="4">
-        <f>0.3*(1-C17)</f>
-        <v>0.3</v>
-      </c>
-      <c r="D18" s="5" t="s">
+      <c r="C18" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="E18" s="4">
-        <f>0.7*(1-E17)</f>
+      <c r="D18" s="4">
+        <f>0.7*(1-D17)</f>
         <v>4.2000000000000037E-2</v>
       </c>
-      <c r="F18" s="5" t="s">
+      <c r="E18" s="5" t="s">
         <v>8</v>
       </c>
+      <c r="F18" s="4">
+        <v>0</v>
+      </c>
       <c r="G18" s="4">
         <v>-999</v>
       </c>
@@ -1477,32 +1424,28 @@
       <c r="N18" s="4">
         <v>-999</v>
       </c>
-      <c r="O18" s="4">
-        <v>-999</v>
-      </c>
-    </row>
-    <row r="19" spans="1:15" x14ac:dyDescent="0.25">
+    </row>
+    <row r="19" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A19" s="1" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B19" s="4">
         <f>0.7*(1-B17)</f>
         <v>0.7</v>
       </c>
-      <c r="C19" s="4">
-        <f>0.7*(1-C17)</f>
-        <v>0.7</v>
-      </c>
-      <c r="D19" s="5" t="s">
+      <c r="C19" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="E19" s="4">
-        <f>0.3*(1-E17)</f>
+      <c r="D19" s="4">
+        <f>0.3*(1-D17)</f>
         <v>1.8000000000000016E-2</v>
       </c>
-      <c r="F19" s="5" t="s">
+      <c r="E19" s="5" t="s">
         <v>8</v>
       </c>
+      <c r="F19" s="4">
+        <v>0.1</v>
+      </c>
       <c r="G19" s="4">
         <v>-999</v>
       </c>
@@ -1527,29 +1470,26 @@
       <c r="N19" s="4">
         <v>-999</v>
       </c>
-      <c r="O19" s="4">
-        <v>-999</v>
-      </c>
-    </row>
-    <row r="20" spans="1:15" x14ac:dyDescent="0.25">
+    </row>
+    <row r="20" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A20" s="3" t="s">
         <v>25</v>
       </c>
       <c r="B20" s="4">
         <v>0</v>
       </c>
-      <c r="C20" s="4">
-        <v>0</v>
-      </c>
-      <c r="D20" s="5" t="s">
+      <c r="C20" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="E20" s="4">
-        <v>0</v>
-      </c>
-      <c r="F20" s="5" t="s">
+      <c r="D20" s="4">
+        <v>0</v>
+      </c>
+      <c r="E20" s="5" t="s">
         <v>8</v>
       </c>
+      <c r="F20" s="4">
+        <v>0.9</v>
+      </c>
       <c r="G20" s="4">
         <v>-999</v>
       </c>
@@ -1574,32 +1514,28 @@
       <c r="N20" s="4">
         <v>-999</v>
       </c>
-      <c r="O20" s="4">
-        <v>-999</v>
-      </c>
-    </row>
-    <row r="21" spans="1:15" x14ac:dyDescent="0.25">
+    </row>
+    <row r="21" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A21" s="3" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B21" s="4">
         <f>0.3*(1-B20)</f>
         <v>0.3</v>
       </c>
-      <c r="C21" s="4">
-        <f>0.3*(1-C20)</f>
-        <v>0.3</v>
-      </c>
-      <c r="D21" s="5" t="s">
+      <c r="C21" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="E21" s="4">
-        <f>0.7*(1-E20)</f>
+      <c r="D21" s="4">
+        <f>0.7*(1-D20)</f>
         <v>0.7</v>
       </c>
-      <c r="F21" s="5" t="s">
+      <c r="E21" s="5" t="s">
         <v>8</v>
       </c>
+      <c r="F21" s="4">
+        <v>0</v>
+      </c>
       <c r="G21" s="4">
         <v>-999</v>
       </c>
@@ -1624,32 +1560,28 @@
       <c r="N21" s="4">
         <v>-999</v>
       </c>
-      <c r="O21" s="4">
-        <v>-999</v>
-      </c>
-    </row>
-    <row r="22" spans="1:15" x14ac:dyDescent="0.25">
+    </row>
+    <row r="22" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A22" s="3" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B22" s="4">
         <f>0.7*(1-B20)</f>
         <v>0.7</v>
       </c>
-      <c r="C22" s="4">
-        <f>0.7*(1-C20)</f>
-        <v>0.7</v>
-      </c>
-      <c r="D22" s="5" t="s">
+      <c r="C22" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="E22" s="4">
-        <f>0.3*(1-E20)</f>
+      <c r="D22" s="4">
+        <f>0.3*(1-D20)</f>
         <v>0.3</v>
       </c>
-      <c r="F22" s="5" t="s">
+      <c r="E22" s="5" t="s">
         <v>8</v>
       </c>
+      <c r="F22" s="4">
+        <v>0.1</v>
+      </c>
       <c r="G22" s="4">
         <v>-999</v>
       </c>
@@ -1674,25 +1606,22 @@
       <c r="N22" s="4">
         <v>-999</v>
       </c>
-      <c r="O22" s="4">
-        <v>-999</v>
-      </c>
-    </row>
-    <row r="23" spans="1:15" x14ac:dyDescent="0.25">
+    </row>
+    <row r="23" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A23" s="1" t="s">
         <v>31</v>
       </c>
       <c r="B23" s="4">
         <v>0</v>
       </c>
-      <c r="C23" s="4">
-        <v>0</v>
-      </c>
-      <c r="D23" s="5"/>
-      <c r="E23" s="4">
-        <v>0</v>
-      </c>
-      <c r="F23" s="5"/>
+      <c r="C23" s="5"/>
+      <c r="D23" s="4">
+        <v>0</v>
+      </c>
+      <c r="E23" s="5"/>
+      <c r="F23" s="4">
+        <v>0</v>
+      </c>
       <c r="G23" s="4">
         <v>-999</v>
       </c>
@@ -1717,28 +1646,24 @@
       <c r="N23" s="4">
         <v>-999</v>
       </c>
-      <c r="O23" s="4">
-        <v>-999</v>
-      </c>
-    </row>
-    <row r="24" spans="1:15" x14ac:dyDescent="0.25">
+    </row>
+    <row r="24" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A24" s="1" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B24" s="4">
         <f>0.3*(1-B23)</f>
         <v>0.3</v>
       </c>
-      <c r="C24" s="4">
-        <f>0.3*(1-C23)</f>
-        <v>0.3</v>
-      </c>
-      <c r="D24" s="5"/>
-      <c r="E24" s="4">
-        <f>0.7*(1-E23)</f>
+      <c r="C24" s="5"/>
+      <c r="D24" s="4">
+        <f>0.7*(1-D23)</f>
         <v>0.7</v>
       </c>
-      <c r="F24" s="5"/>
+      <c r="E24" s="5"/>
+      <c r="F24" s="4">
+        <v>0</v>
+      </c>
       <c r="G24" s="4">
         <v>-999</v>
       </c>
@@ -1763,28 +1688,24 @@
       <c r="N24" s="4">
         <v>-999</v>
       </c>
-      <c r="O24" s="4">
-        <v>-999</v>
-      </c>
-    </row>
-    <row r="25" spans="1:15" x14ac:dyDescent="0.25">
+    </row>
+    <row r="25" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A25" s="1" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B25" s="4">
         <f>0.7*(1-B23)</f>
         <v>0.7</v>
       </c>
-      <c r="C25" s="4">
-        <f>0.7*(1-C23)</f>
-        <v>0.7</v>
-      </c>
-      <c r="D25" s="5"/>
-      <c r="E25" s="4">
-        <f>0.3*(1-E23)</f>
+      <c r="C25" s="5"/>
+      <c r="D25" s="4">
+        <f>0.3*(1-D23)</f>
         <v>0.3</v>
       </c>
-      <c r="F25" s="5"/>
+      <c r="E25" s="5"/>
+      <c r="F25" s="4">
+        <v>1</v>
+      </c>
       <c r="G25" s="4">
         <v>-999</v>
       </c>
@@ -1809,71 +1730,64 @@
       <c r="N25" s="4">
         <v>-999</v>
       </c>
-      <c r="O25" s="4">
-        <v>-999</v>
-      </c>
-    </row>
-    <row r="26" spans="1:15" x14ac:dyDescent="0.25">
+    </row>
+    <row r="26" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A26" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="B26" s="4">
+        <v>0</v>
+      </c>
+      <c r="C26" s="5"/>
+      <c r="D26" s="4">
+        <v>0</v>
+      </c>
+      <c r="E26" s="5"/>
+      <c r="F26" s="4">
+        <v>0</v>
+      </c>
+      <c r="G26" s="4">
+        <v>-999</v>
+      </c>
+      <c r="H26" s="4">
+        <v>-999</v>
+      </c>
+      <c r="I26" s="4">
+        <v>-999</v>
+      </c>
+      <c r="J26" s="4">
+        <v>-999</v>
+      </c>
+      <c r="K26" s="4">
+        <v>-999</v>
+      </c>
+      <c r="L26" s="4">
+        <v>-999</v>
+      </c>
+      <c r="M26" s="4">
+        <v>-999</v>
+      </c>
+      <c r="N26" s="4">
+        <v>-999</v>
+      </c>
+    </row>
+    <row r="27" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A27" s="3" t="s">
         <v>51</v>
-      </c>
-      <c r="B26" s="4">
-        <v>0</v>
-      </c>
-      <c r="C26" s="4">
-        <v>0</v>
-      </c>
-      <c r="D26" s="5"/>
-      <c r="E26" s="4">
-        <v>0</v>
-      </c>
-      <c r="F26" s="5"/>
-      <c r="G26" s="4">
-        <v>-999</v>
-      </c>
-      <c r="H26" s="4">
-        <v>-999</v>
-      </c>
-      <c r="I26" s="4">
-        <v>-999</v>
-      </c>
-      <c r="J26" s="4">
-        <v>-999</v>
-      </c>
-      <c r="K26" s="4">
-        <v>-999</v>
-      </c>
-      <c r="L26" s="4">
-        <v>-999</v>
-      </c>
-      <c r="M26" s="4">
-        <v>-999</v>
-      </c>
-      <c r="N26" s="4">
-        <v>-999</v>
-      </c>
-      <c r="O26" s="4">
-        <v>-999</v>
-      </c>
-    </row>
-    <row r="27" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A27" s="3" t="s">
-        <v>52</v>
       </c>
       <c r="B27" s="4">
         <f>0.3*(1-B26)</f>
         <v>0.3</v>
       </c>
-      <c r="C27" s="4">
-        <f>0.3*(1-C26)</f>
-        <v>0.3</v>
-      </c>
-      <c r="D27" s="5"/>
-      <c r="E27" s="4">
-        <f>0.7*(1-E26)</f>
+      <c r="C27" s="5"/>
+      <c r="D27" s="4">
+        <f>0.7*(1-D26)</f>
         <v>0.7</v>
       </c>
-      <c r="F27" s="5"/>
+      <c r="E27" s="5"/>
+      <c r="F27" s="4">
+        <v>0</v>
+      </c>
       <c r="G27" s="4">
         <v>-999</v>
       </c>
@@ -1898,28 +1812,24 @@
       <c r="N27" s="4">
         <v>-999</v>
       </c>
-      <c r="O27" s="4">
-        <v>-999</v>
-      </c>
-    </row>
-    <row r="28" spans="1:15" x14ac:dyDescent="0.25">
+    </row>
+    <row r="28" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A28" s="3" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B28" s="4">
         <f>0.7*(1-B26)</f>
         <v>0.7</v>
       </c>
-      <c r="C28" s="4">
-        <f>0.7*(1-C26)</f>
-        <v>0.7</v>
-      </c>
-      <c r="D28" s="5"/>
-      <c r="E28" s="4">
-        <f>0.3*(1-E26)</f>
+      <c r="C28" s="5"/>
+      <c r="D28" s="4">
+        <f>0.3*(1-D26)</f>
         <v>0.3</v>
       </c>
-      <c r="F28" s="5"/>
+      <c r="E28" s="5"/>
+      <c r="F28" s="4">
+        <v>1</v>
+      </c>
       <c r="G28" s="4">
         <v>-999</v>
       </c>
@@ -1944,25 +1854,22 @@
       <c r="N28" s="4">
         <v>-999</v>
       </c>
-      <c r="O28" s="4">
-        <v>-999</v>
-      </c>
-    </row>
-    <row r="29" spans="1:15" x14ac:dyDescent="0.25">
+    </row>
+    <row r="29" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A29" s="2" t="s">
         <v>2</v>
       </c>
       <c r="B29" s="6">
         <v>2022</v>
       </c>
-      <c r="C29" s="6">
+      <c r="C29" s="7"/>
+      <c r="D29" s="6">
         <v>2022</v>
       </c>
-      <c r="D29" s="7"/>
-      <c r="E29" s="6">
+      <c r="E29" s="7"/>
+      <c r="F29" s="6">
         <v>2022</v>
       </c>
-      <c r="F29" s="7"/>
       <c r="G29" s="6">
         <v>2022</v>
       </c>
@@ -1987,25 +1894,22 @@
       <c r="N29" s="6">
         <v>2022</v>
       </c>
-      <c r="O29" s="6">
-        <v>2022</v>
-      </c>
-    </row>
-    <row r="30" spans="1:15" x14ac:dyDescent="0.25">
+    </row>
+    <row r="30" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A30" s="2" t="s">
         <v>3</v>
       </c>
       <c r="B30" s="6">
         <v>2030</v>
       </c>
-      <c r="C30" s="6">
+      <c r="C30" s="7"/>
+      <c r="D30" s="6">
         <v>2030</v>
       </c>
-      <c r="D30" s="7"/>
-      <c r="E30" s="6">
+      <c r="E30" s="7"/>
+      <c r="F30" s="6">
         <v>2030</v>
       </c>
-      <c r="F30" s="7"/>
       <c r="G30" s="6">
         <v>2030</v>
       </c>
@@ -2030,25 +1934,22 @@
       <c r="N30" s="6">
         <v>2030</v>
       </c>
-      <c r="O30" s="6">
-        <v>2030</v>
-      </c>
-    </row>
-    <row r="31" spans="1:15" x14ac:dyDescent="0.25">
+    </row>
+    <row r="31" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A31" s="2" t="s">
         <v>26</v>
       </c>
       <c r="B31" s="4">
         <v>0.98</v>
       </c>
-      <c r="C31" s="4">
-        <v>0.98</v>
-      </c>
-      <c r="D31" s="5"/>
-      <c r="E31" s="4">
-        <v>0.98</v>
-      </c>
-      <c r="F31" s="5"/>
+      <c r="C31" s="5"/>
+      <c r="D31" s="4">
+        <v>0.98</v>
+      </c>
+      <c r="E31" s="5"/>
+      <c r="F31" s="4">
+        <v>0.98</v>
+      </c>
       <c r="G31" s="4">
         <v>0.98</v>
       </c>
@@ -2059,7 +1960,7 @@
         <v>0.98</v>
       </c>
       <c r="J31" s="4">
-        <v>0.98</v>
+        <v>1</v>
       </c>
       <c r="K31" s="4">
         <v>1</v>
@@ -2068,30 +1969,27 @@
         <v>1</v>
       </c>
       <c r="M31" s="4">
-        <v>1</v>
+        <v>0.98</v>
       </c>
       <c r="N31" s="4">
-        <v>0.98</v>
-      </c>
-      <c r="O31" s="4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="32" spans="1:15" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="32" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A32" s="2" t="s">
         <v>27</v>
       </c>
       <c r="B32" s="4">
         <v>0.5</v>
       </c>
-      <c r="C32" s="4">
+      <c r="C32" s="5"/>
+      <c r="D32" s="4">
         <v>0.5</v>
       </c>
-      <c r="D32" s="5"/>
-      <c r="E32" s="4">
+      <c r="E32" s="5"/>
+      <c r="F32" s="4">
         <v>0.5</v>
       </c>
-      <c r="F32" s="5"/>
       <c r="G32" s="4">
         <v>0.5</v>
       </c>
@@ -2102,25 +2000,22 @@
         <v>0.5</v>
       </c>
       <c r="J32" s="4">
+        <v>1</v>
+      </c>
+      <c r="K32" s="4">
+        <v>1</v>
+      </c>
+      <c r="L32" s="4">
+        <v>1</v>
+      </c>
+      <c r="M32" s="4">
         <v>0.5</v>
       </c>
-      <c r="K32" s="4">
-        <v>1</v>
-      </c>
-      <c r="L32" s="4">
-        <v>1</v>
-      </c>
-      <c r="M32" s="4">
-        <v>1</v>
-      </c>
       <c r="N32" s="4">
-        <v>0.5</v>
-      </c>
-      <c r="O32" s="4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="33" spans="1:15" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="33" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A33" s="2" t="s">
         <v>19</v>
       </c>
@@ -2128,18 +2023,18 @@
         <f>B8</f>
         <v>0</v>
       </c>
-      <c r="C33" s="4">
-        <f>C8</f>
-        <v>0</v>
-      </c>
-      <c r="D33" s="5"/>
-      <c r="E33" s="4">
-        <f>E8</f>
-        <v>0</v>
-      </c>
-      <c r="F33" s="5"/>
+      <c r="C33" s="5"/>
+      <c r="D33" s="4">
+        <f>D8</f>
+        <v>0</v>
+      </c>
+      <c r="E33" s="5"/>
+      <c r="F33" s="4">
+        <f>F8</f>
+        <v>0</v>
+      </c>
       <c r="G33" s="4">
-        <f t="shared" ref="G33:L33" si="0">G8</f>
+        <f t="shared" ref="G33:K33" si="0">G8</f>
         <v>-999</v>
       </c>
       <c r="H33" s="4">
@@ -2159,37 +2054,33 @@
         <v>-999</v>
       </c>
       <c r="L33" s="4">
-        <f t="shared" si="0"/>
+        <f t="shared" ref="L33:N33" si="1">L8</f>
         <v>-999</v>
       </c>
       <c r="M33" s="4">
-        <f t="shared" ref="M33:O33" si="1">M8</f>
+        <f t="shared" si="1"/>
         <v>-999</v>
       </c>
       <c r="N33" s="4">
         <f t="shared" si="1"/>
         <v>-999</v>
       </c>
-      <c r="O33" s="4">
-        <f t="shared" si="1"/>
-        <v>-999</v>
-      </c>
-    </row>
-    <row r="34" spans="1:15" x14ac:dyDescent="0.25">
+    </row>
+    <row r="34" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A34" s="2" t="s">
         <v>20</v>
       </c>
       <c r="B34" s="4">
         <v>0.98</v>
       </c>
-      <c r="C34" s="4">
-        <v>0.98</v>
-      </c>
-      <c r="D34" s="5"/>
-      <c r="E34" s="4">
-        <v>0.98</v>
-      </c>
-      <c r="F34" s="5"/>
+      <c r="C34" s="5"/>
+      <c r="D34" s="4">
+        <v>0.98</v>
+      </c>
+      <c r="E34" s="5"/>
+      <c r="F34" s="4">
+        <v>0.98</v>
+      </c>
       <c r="G34" s="4">
         <v>0.98</v>
       </c>
@@ -2214,25 +2105,22 @@
       <c r="N34" s="4">
         <v>0.98</v>
       </c>
-      <c r="O34" s="4">
-        <v>0.98</v>
-      </c>
-    </row>
-    <row r="35" spans="1:15" x14ac:dyDescent="0.25">
+    </row>
+    <row r="35" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A35" s="2" t="s">
         <v>21</v>
       </c>
       <c r="B35" s="4">
         <v>0</v>
       </c>
-      <c r="C35" s="4">
-        <v>0</v>
-      </c>
-      <c r="D35" s="5"/>
-      <c r="E35" s="4">
-        <v>0</v>
-      </c>
-      <c r="F35" s="5"/>
+      <c r="C35" s="5"/>
+      <c r="D35" s="4">
+        <v>0</v>
+      </c>
+      <c r="E35" s="5"/>
+      <c r="F35" s="4">
+        <v>0</v>
+      </c>
       <c r="G35" s="4">
         <v>0</v>
       </c>
@@ -2257,25 +2145,22 @@
       <c r="N35" s="4">
         <v>0</v>
       </c>
-      <c r="O35" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="36" spans="1:15" x14ac:dyDescent="0.25">
+    </row>
+    <row r="36" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A36" s="2" t="s">
         <v>29</v>
       </c>
       <c r="B36" s="4">
         <v>0.98</v>
       </c>
-      <c r="C36" s="4">
-        <v>0.98</v>
-      </c>
-      <c r="D36" s="5"/>
-      <c r="E36" s="4">
-        <v>0.98</v>
-      </c>
-      <c r="F36" s="5"/>
+      <c r="C36" s="5"/>
+      <c r="D36" s="4">
+        <v>0.98</v>
+      </c>
+      <c r="E36" s="5"/>
+      <c r="F36" s="4">
+        <v>0.98</v>
+      </c>
       <c r="G36" s="4">
         <v>0.98</v>
       </c>
@@ -2286,7 +2171,7 @@
         <v>0.98</v>
       </c>
       <c r="J36" s="4">
-        <v>0.98</v>
+        <v>1</v>
       </c>
       <c r="K36" s="4">
         <v>1</v>
@@ -2295,30 +2180,27 @@
         <v>1</v>
       </c>
       <c r="M36" s="4">
-        <v>1</v>
+        <v>0.98</v>
       </c>
       <c r="N36" s="4">
-        <v>0.98</v>
-      </c>
-      <c r="O36" s="4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="37" spans="1:15" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="37" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A37" s="2" t="s">
         <v>28</v>
       </c>
       <c r="B37" s="4">
         <v>0.98</v>
       </c>
-      <c r="C37" s="4">
-        <v>0.98</v>
-      </c>
-      <c r="D37" s="5"/>
-      <c r="E37" s="4">
-        <v>0.98</v>
-      </c>
-      <c r="F37" s="5"/>
+      <c r="C37" s="5"/>
+      <c r="D37" s="4">
+        <v>0.98</v>
+      </c>
+      <c r="E37" s="5"/>
+      <c r="F37" s="4">
+        <v>0.98</v>
+      </c>
       <c r="G37" s="4">
         <v>0.98</v>
       </c>
@@ -2329,7 +2211,7 @@
         <v>0.98</v>
       </c>
       <c r="J37" s="4">
-        <v>0.98</v>
+        <v>1</v>
       </c>
       <c r="K37" s="4">
         <v>1</v>
@@ -2338,30 +2220,27 @@
         <v>1</v>
       </c>
       <c r="M37" s="4">
-        <v>1</v>
+        <v>0.98</v>
       </c>
       <c r="N37" s="4">
-        <v>0.98</v>
-      </c>
-      <c r="O37" s="4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="38" spans="1:15" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="38" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A38" s="2" t="s">
         <v>30</v>
       </c>
       <c r="B38" s="4">
         <v>0.98</v>
       </c>
-      <c r="C38" s="4">
-        <v>0.98</v>
-      </c>
-      <c r="D38" s="5"/>
-      <c r="E38" s="4">
-        <v>0.98</v>
-      </c>
-      <c r="F38" s="5"/>
+      <c r="C38" s="5"/>
+      <c r="D38" s="4">
+        <v>0.98</v>
+      </c>
+      <c r="E38" s="5"/>
+      <c r="F38" s="4">
+        <v>0.98</v>
+      </c>
       <c r="G38" s="4">
         <v>0.98</v>
       </c>
@@ -2372,7 +2251,7 @@
         <v>0.98</v>
       </c>
       <c r="J38" s="4">
-        <v>0.98</v>
+        <v>1</v>
       </c>
       <c r="K38" s="4">
         <v>1</v>
@@ -2381,30 +2260,27 @@
         <v>1</v>
       </c>
       <c r="M38" s="4">
-        <v>1</v>
+        <v>0.98</v>
       </c>
       <c r="N38" s="4">
-        <v>0.98</v>
-      </c>
-      <c r="O38" s="4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="39" spans="1:15" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="39" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A39" s="2" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B39" s="4">
         <v>0.98</v>
       </c>
-      <c r="C39" s="4">
-        <v>0.98</v>
-      </c>
-      <c r="D39" s="5"/>
-      <c r="E39" s="4">
-        <v>0.98</v>
-      </c>
-      <c r="F39" s="5"/>
+      <c r="C39" s="5"/>
+      <c r="D39" s="4">
+        <v>0.98</v>
+      </c>
+      <c r="E39" s="5"/>
+      <c r="F39" s="4">
+        <v>0.98</v>
+      </c>
       <c r="G39" s="4">
         <v>0.98</v>
       </c>
@@ -2415,7 +2291,7 @@
         <v>0.98</v>
       </c>
       <c r="J39" s="4">
-        <v>0.98</v>
+        <v>1</v>
       </c>
       <c r="K39" s="4">
         <v>1</v>
@@ -2424,12 +2300,9 @@
         <v>1</v>
       </c>
       <c r="M39" s="4">
-        <v>1</v>
+        <v>0.98</v>
       </c>
       <c r="N39" s="4">
-        <v>0.98</v>
-      </c>
-      <c r="O39" s="4">
         <v>1</v>
       </c>
     </row>
